--- a/sp500factorsDF.xlsx
+++ b/sp500factorsDF.xlsx
@@ -480,13 +480,13 @@
         <v>0.68</v>
       </c>
       <c r="C2" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="D2" t="n">
-        <v>38902.05</v>
+        <v>38951.71</v>
       </c>
       <c r="E2" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="F2" t="n">
         <v>19.51</v>
@@ -505,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>77.36</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>9683.309999999999</v>
+        <v>9735.59</v>
       </c>
       <c r="E3" t="n">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="F3" t="n">
         <v>19.22</v>
@@ -533,7 +533,7 @@
         <v>-1.32</v>
       </c>
       <c r="D4" t="n">
-        <v>2937795.32</v>
+        <v>2936629.11</v>
       </c>
       <c r="E4" t="n">
         <v>1.24</v>
@@ -555,13 +555,13 @@
         <v>3.26</v>
       </c>
       <c r="C5" t="n">
-        <v>15.16</v>
+        <v>15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>307607.54</v>
+        <v>307979.08</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F5" t="n">
         <v>11.06</v>
@@ -580,13 +580,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.35</v>
       </c>
       <c r="D6" t="n">
-        <v>94985.60000000001</v>
+        <v>94460.8</v>
       </c>
       <c r="E6" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="F6" t="n">
         <v>17.73</v>
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="C7" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="D7" t="n">
-        <v>193674.69</v>
+        <v>194108.7</v>
       </c>
       <c r="E7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="F7" t="n">
         <v>17.71</v>
@@ -633,7 +633,7 @@
         <v>6.14</v>
       </c>
       <c r="D8" t="n">
-        <v>30897.97</v>
+        <v>30909.08</v>
       </c>
       <c r="E8" t="n">
         <v>1.04</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.62</v>
+        <v>13.56</v>
       </c>
       <c r="C9" t="n">
-        <v>-39.72</v>
+        <v>-39.47</v>
       </c>
       <c r="D9" t="n">
-        <v>20756.06</v>
+        <v>20850.35</v>
       </c>
       <c r="E9" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1.09</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.33</v>
+        <v>-1.34</v>
       </c>
       <c r="D10" t="n">
-        <v>285719.53</v>
+        <v>285380.56</v>
       </c>
       <c r="E10" t="n">
         <v>1.71</v>
@@ -705,13 +705,13 @@
         <v>1.73</v>
       </c>
       <c r="C11" t="n">
-        <v>6.21</v>
+        <v>6.22</v>
       </c>
       <c r="D11" t="n">
-        <v>96914.94</v>
+        <v>96780.95</v>
       </c>
       <c r="E11" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="F11" t="n">
         <v>13.12</v>
@@ -730,10 +730,10 @@
         <v>3.1</v>
       </c>
       <c r="C12" t="n">
-        <v>24.18</v>
+        <v>24.17</v>
       </c>
       <c r="D12" t="n">
-        <v>29010.14</v>
+        <v>29018.35</v>
       </c>
       <c r="E12" t="n">
         <v>5.8</v>
@@ -758,7 +758,7 @@
         <v>1.38</v>
       </c>
       <c r="D13" t="n">
-        <v>102983.91</v>
+        <v>103020.88</v>
       </c>
       <c r="E13" t="n">
         <v>0.82</v>
@@ -783,10 +783,10 @@
         <v>0.85</v>
       </c>
       <c r="D14" t="n">
-        <v>57725.35</v>
+        <v>57336.2</v>
       </c>
       <c r="E14" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="F14" t="n">
         <v>19.61</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="C15" t="n">
-        <v>45.59</v>
+        <v>45.61</v>
       </c>
       <c r="D15" t="n">
-        <v>17716.88</v>
+        <v>17703.99</v>
       </c>
       <c r="E15" t="n">
         <v>1.08</v>
@@ -830,10 +830,10 @@
         <v>4.18</v>
       </c>
       <c r="C16" t="n">
-        <v>50.92</v>
+        <v>50.9</v>
       </c>
       <c r="D16" t="n">
-        <v>39367.28</v>
+        <v>39392.98</v>
       </c>
       <c r="E16" t="n">
         <v>1.19</v>
@@ -852,16 +852,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.84</v>
+        <v>3.83</v>
       </c>
       <c r="C17" t="n">
-        <v>66.67</v>
+        <v>66.62</v>
       </c>
       <c r="D17" t="n">
-        <v>10984.11</v>
+        <v>11007.52</v>
       </c>
       <c r="E17" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="F17" t="n">
         <v>33.33</v>
@@ -880,13 +880,13 @@
         <v>2.1</v>
       </c>
       <c r="C18" t="n">
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="D18" t="n">
-        <v>46596.88</v>
+        <v>46638.62</v>
       </c>
       <c r="E18" t="n">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="F18" t="n">
         <v>6.65</v>
@@ -905,10 +905,10 @@
         <v>1.99</v>
       </c>
       <c r="C19" t="n">
-        <v>34.1</v>
+        <v>34.08</v>
       </c>
       <c r="D19" t="n">
-        <v>50696.94</v>
+        <v>50740.99</v>
       </c>
       <c r="E19" t="n">
         <v>1.08</v>
@@ -933,7 +933,7 @@
         <v>6.2</v>
       </c>
       <c r="D20" t="n">
-        <v>9217.84</v>
+        <v>9218.370000000001</v>
       </c>
       <c r="E20" t="n">
         <v>1.09</v>
@@ -955,10 +955,10 @@
         <v>0.83</v>
       </c>
       <c r="C21" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>51800.95</v>
+        <v>51753.28</v>
       </c>
       <c r="E21" t="n">
         <v>0.95</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>7.98</v>
+        <v>8.01</v>
       </c>
       <c r="D22" t="n">
-        <v>20167.49</v>
+        <v>20081.42</v>
       </c>
       <c r="E22" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="F22" t="n">
         <v>13.54</v>
@@ -1002,22 +1002,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="C23" t="n">
-        <v>14.39</v>
+        <v>14.33</v>
       </c>
       <c r="D23" t="n">
-        <v>13505.95</v>
+        <v>13565.71</v>
       </c>
       <c r="E23" t="n">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="F23" t="n">
         <v>-9.109999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="24">
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>-4.04</v>
+        <v>-4.05</v>
       </c>
       <c r="D24" t="n">
-        <v>22749.23</v>
+        <v>22698.68</v>
       </c>
       <c r="E24" t="n">
         <v>2.16</v>
@@ -1052,16 +1052,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.46</v>
+        <v>2.45</v>
       </c>
       <c r="C25" t="n">
-        <v>15.3</v>
+        <v>15.25</v>
       </c>
       <c r="D25" t="n">
-        <v>41922.2</v>
+        <v>42087.89</v>
       </c>
       <c r="E25" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F25" t="n">
         <v>22.6</v>
@@ -1080,13 +1080,13 @@
         <v>1.24</v>
       </c>
       <c r="C26" t="n">
-        <v>14.11</v>
+        <v>14.14</v>
       </c>
       <c r="D26" t="n">
-        <v>11615.02</v>
+        <v>11588.66</v>
       </c>
       <c r="E26" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="F26" t="n">
         <v>23.48</v>
@@ -1108,10 +1108,10 @@
         <v>-0.63</v>
       </c>
       <c r="D27" t="n">
-        <v>154295.76</v>
+        <v>154804.72</v>
       </c>
       <c r="E27" t="n">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="F27" t="n">
         <v>12.77</v>
@@ -1130,10 +1130,10 @@
         <v>5.49</v>
       </c>
       <c r="C28" t="n">
-        <v>33.48</v>
+        <v>33.47</v>
       </c>
       <c r="D28" t="n">
-        <v>13173.18</v>
+        <v>13176.8</v>
       </c>
       <c r="E28" t="n">
         <v>1.16</v>
@@ -1158,7 +1158,7 @@
         <v>-1</v>
       </c>
       <c r="D29" t="n">
-        <v>278824.8</v>
+        <v>278727.67</v>
       </c>
       <c r="E29" t="n">
         <v>3.41</v>
@@ -1183,7 +1183,7 @@
         <v>5.41</v>
       </c>
       <c r="D30" t="n">
-        <v>38762.38</v>
+        <v>38763.54</v>
       </c>
       <c r="E30" t="n">
         <v>1.18</v>
@@ -1205,13 +1205,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>16.28</v>
+        <v>16.33</v>
       </c>
       <c r="D31" t="n">
-        <v>156013.44</v>
+        <v>155458.08</v>
       </c>
       <c r="E31" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="F31" t="n">
         <v>9.94</v>
@@ -1230,10 +1230,10 @@
         <v>1.34</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.05</v>
+        <v>-11.07</v>
       </c>
       <c r="D32" t="n">
-        <v>39838.52</v>
+        <v>39773.39</v>
       </c>
       <c r="E32" t="n">
         <v>0.8100000000000001</v>
@@ -1255,13 +1255,13 @@
         <v>2.91</v>
       </c>
       <c r="C33" t="n">
-        <v>33.26</v>
+        <v>33.21</v>
       </c>
       <c r="D33" t="n">
-        <v>90362.67999999999</v>
+        <v>90534.96000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="F33" t="n">
         <v>30.82</v>
@@ -1280,13 +1280,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="D34" t="n">
-        <v>1816506.93</v>
+        <v>1811314.32</v>
       </c>
       <c r="E34" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="F34" t="n">
         <v>23.53</v>
@@ -1308,10 +1308,10 @@
         <v>-3.54</v>
       </c>
       <c r="D35" t="n">
-        <v>86607.42</v>
+        <v>86681.08</v>
       </c>
       <c r="E35" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="F35" t="n">
         <v>35.42</v>
@@ -1333,7 +1333,7 @@
         <v>0.91</v>
       </c>
       <c r="D36" t="n">
-        <v>29868.17</v>
+        <v>29761.22</v>
       </c>
       <c r="E36" t="n">
         <v>1.72</v>
@@ -1355,13 +1355,13 @@
         <v>0.76</v>
       </c>
       <c r="C37" t="n">
-        <v>14.15</v>
+        <v>14.1</v>
       </c>
       <c r="D37" t="n">
-        <v>63941.02</v>
+        <v>64199.82</v>
       </c>
       <c r="E37" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="F37" t="n">
         <v>-4.42</v>
@@ -1383,7 +1383,7 @@
         <v>-1.76</v>
       </c>
       <c r="D38" t="n">
-        <v>12043.79</v>
+        <v>12035.58</v>
       </c>
       <c r="E38" t="n">
         <v>1.45</v>
@@ -1405,13 +1405,13 @@
         <v>2.22</v>
       </c>
       <c r="C39" t="n">
-        <v>37.14</v>
+        <v>37.19</v>
       </c>
       <c r="D39" t="n">
-        <v>9326.52</v>
+        <v>9306.27</v>
       </c>
       <c r="E39" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="F39" t="n">
         <v>-22.82</v>
@@ -1427,13 +1427,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.09</v>
+        <v>3.06</v>
       </c>
       <c r="C40" t="n">
-        <v>15.78</v>
+        <v>15.68</v>
       </c>
       <c r="D40" t="n">
-        <v>48466.23</v>
+        <v>48848.41</v>
       </c>
       <c r="E40" t="n">
         <v>3.65</v>
@@ -1458,7 +1458,7 @@
         <v>4.08</v>
       </c>
       <c r="D41" t="n">
-        <v>62993.07</v>
+        <v>62996.06</v>
       </c>
       <c r="E41" t="n">
         <v>0.98</v>
@@ -1480,10 +1480,10 @@
         <v>0.14</v>
       </c>
       <c r="C42" t="n">
-        <v>17.79</v>
+        <v>17.81</v>
       </c>
       <c r="D42" t="n">
-        <v>23219.45</v>
+        <v>23200.35</v>
       </c>
       <c r="E42" t="n">
         <v>2.13</v>
@@ -1502,16 +1502,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.29</v>
+        <v>4.27</v>
       </c>
       <c r="C43" t="n">
-        <v>35.93</v>
+        <v>35.83</v>
       </c>
       <c r="D43" t="n">
-        <v>19762.42</v>
+        <v>19840.96</v>
       </c>
       <c r="E43" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F43" t="n">
         <v>32.81</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="C44" t="n">
-        <v>29.81</v>
+        <v>29.87</v>
       </c>
       <c r="D44" t="n">
-        <v>16846.51</v>
+        <v>16796.02</v>
       </c>
       <c r="E44" t="n">
         <v>1.13</v>
@@ -1552,13 +1552,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.61</v>
+        <v>3.59</v>
       </c>
       <c r="C45" t="n">
-        <v>23.55</v>
+        <v>23.42</v>
       </c>
       <c r="D45" t="n">
-        <v>24620.11</v>
+        <v>24801.91</v>
       </c>
       <c r="E45" t="n">
         <v>1.16</v>
@@ -1580,10 +1580,10 @@
         <v>1.44</v>
       </c>
       <c r="C46" t="n">
-        <v>4.58</v>
+        <v>4.57</v>
       </c>
       <c r="D46" t="n">
-        <v>530342.29</v>
+        <v>531344.14</v>
       </c>
       <c r="E46" t="n">
         <v>2.07</v>
@@ -1608,7 +1608,7 @@
         <v>15.52</v>
       </c>
       <c r="D47" t="n">
-        <v>16489.59</v>
+        <v>16490.39</v>
       </c>
       <c r="E47" t="n">
         <v>0.9399999999999999</v>
@@ -1630,13 +1630,13 @@
         <v>2.1</v>
       </c>
       <c r="C48" t="n">
-        <v>35.69</v>
+        <v>35.72</v>
       </c>
       <c r="D48" t="n">
-        <v>22248.51</v>
+        <v>22223.05</v>
       </c>
       <c r="E48" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="F48" t="n">
         <v>14.17</v>
@@ -1658,7 +1658,7 @@
         <v>-1.36</v>
       </c>
       <c r="D49" t="n">
-        <v>19220.14</v>
+        <v>19211.63</v>
       </c>
       <c r="E49" t="n">
         <v>1.19</v>
@@ -1677,13 +1677,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="C50" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="D50" t="n">
-        <v>154273.74</v>
+        <v>153615.81</v>
       </c>
       <c r="E50" t="n">
         <v>1.76</v>
@@ -1705,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>18.08</v>
+        <v>18.18</v>
       </c>
       <c r="D51" t="n">
-        <v>48198.54</v>
+        <v>47856.76</v>
       </c>
       <c r="E51" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="F51" t="n">
         <v>3.24</v>
@@ -1730,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>22.2</v>
+        <v>22.18</v>
       </c>
       <c r="D52" t="n">
-        <v>127364.26</v>
+        <v>127510.54</v>
       </c>
       <c r="E52" t="n">
         <v>2.94</v>
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.29</v>
+        <v>3.28</v>
       </c>
       <c r="C53" t="n">
-        <v>26.03</v>
+        <v>25.99</v>
       </c>
       <c r="D53" t="n">
-        <v>260542.21</v>
+        <v>261102.78</v>
       </c>
       <c r="E53" t="n">
         <v>1.32</v>
@@ -1780,10 +1780,10 @@
         <v>1.35</v>
       </c>
       <c r="C54" t="n">
-        <v>29.73</v>
+        <v>29.68</v>
       </c>
       <c r="D54" t="n">
-        <v>18609.16</v>
+        <v>18656.45</v>
       </c>
       <c r="E54" t="n">
         <v>2.08</v>
@@ -1802,16 +1802,16 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="C55" t="n">
-        <v>43.57</v>
+        <v>43.72</v>
       </c>
       <c r="D55" t="n">
-        <v>20068.84</v>
+        <v>19950.3</v>
       </c>
       <c r="E55" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="F55" t="n">
         <v>22.36</v>
@@ -1827,16 +1827,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="C56" t="n">
-        <v>32.16</v>
+        <v>32.01</v>
       </c>
       <c r="D56" t="n">
-        <v>10170.12</v>
+        <v>10240.88</v>
       </c>
       <c r="E56" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="F56" t="n">
         <v>35.72</v>
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="C57" t="n">
-        <v>11.43</v>
+        <v>11.39</v>
       </c>
       <c r="D57" t="n">
-        <v>16422.93</v>
+        <v>16488.36</v>
       </c>
       <c r="E57" t="n">
         <v>1.67</v>
@@ -1880,13 +1880,13 @@
         <v>1.57</v>
       </c>
       <c r="C58" t="n">
-        <v>17.48</v>
+        <v>17.47</v>
       </c>
       <c r="D58" t="n">
-        <v>70753.96000000001</v>
+        <v>70783</v>
       </c>
       <c r="E58" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F58" t="n">
         <v>-8.65</v>
@@ -1902,16 +1902,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4.55</v>
+        <v>4.52</v>
       </c>
       <c r="C59" t="n">
-        <v>37.69</v>
+        <v>37.51</v>
       </c>
       <c r="D59" t="n">
-        <v>13335.77</v>
+        <v>13439.92</v>
       </c>
       <c r="E59" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="F59" t="n">
         <v>25.89</v>
@@ -1927,13 +1927,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="C60" t="n">
-        <v>8.84</v>
+        <v>8.82</v>
       </c>
       <c r="D60" t="n">
-        <v>27052.65</v>
+        <v>27114.96</v>
       </c>
       <c r="E60" t="n">
         <v>1.49</v>
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="C61" t="n">
-        <v>24.96</v>
+        <v>24.9</v>
       </c>
       <c r="D61" t="n">
-        <v>13225.63</v>
+        <v>13272.85</v>
       </c>
       <c r="E61" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="F61" t="n">
         <v>-6.6</v>
@@ -1983,7 +1983,7 @@
         <v>3.1</v>
       </c>
       <c r="D62" t="n">
-        <v>34736.02</v>
+        <v>34725.22</v>
       </c>
       <c r="E62" t="n">
         <v>1.02</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>-4.35</v>
+        <v>-4.36</v>
       </c>
       <c r="D63" t="n">
-        <v>9648.200000000001</v>
+        <v>9625.120000000001</v>
       </c>
       <c r="E63" t="n">
         <v>1.85</v>
@@ -2030,10 +2030,10 @@
         <v>3.28</v>
       </c>
       <c r="C64" t="n">
-        <v>193.97</v>
+        <v>193.77</v>
       </c>
       <c r="D64" t="n">
-        <v>41976.54</v>
+        <v>41930.98</v>
       </c>
       <c r="E64" t="n">
         <v>0.61</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.45</v>
+        <v>-1.44</v>
       </c>
       <c r="D65" t="n">
-        <v>142014.16</v>
+        <v>142295.85</v>
       </c>
       <c r="E65" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="F65" t="n">
         <v>27.05</v>
@@ -2077,13 +2077,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="C66" t="n">
-        <v>10.45</v>
+        <v>10.42</v>
       </c>
       <c r="D66" t="n">
-        <v>28927.03</v>
+        <v>29001.88</v>
       </c>
       <c r="E66" t="n">
         <v>1.72</v>
@@ -2105,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>11.67</v>
+        <v>11.7</v>
       </c>
       <c r="D67" t="n">
-        <v>25828.7</v>
+        <v>25735.67</v>
       </c>
       <c r="E67" t="n">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="F67" t="n">
         <v>53.18</v>
@@ -2133,10 +2133,10 @@
         <v>0.89</v>
       </c>
       <c r="D68" t="n">
-        <v>119722.83</v>
+        <v>119387.38</v>
       </c>
       <c r="E68" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F68" t="n">
         <v>30.05</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4.51</v>
+        <v>4.48</v>
       </c>
       <c r="C69" t="n">
-        <v>23.44</v>
+        <v>23.34</v>
       </c>
       <c r="D69" t="n">
-        <v>102764.38</v>
+        <v>103355.75</v>
       </c>
       <c r="E69" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="F69" t="n">
         <v>-10.89</v>
@@ -2177,13 +2177,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="C70" t="n">
-        <v>12.61</v>
+        <v>12.64</v>
       </c>
       <c r="D70" t="n">
-        <v>23560.95</v>
+        <v>23499.54</v>
       </c>
       <c r="E70" t="n">
         <v>0.9</v>
@@ -2236,13 +2236,13 @@
         <v>0.59</v>
       </c>
       <c r="C72" t="n">
-        <v>12.43</v>
+        <v>12.4</v>
       </c>
       <c r="D72" t="n">
-        <v>22981.91</v>
+        <v>23044.5</v>
       </c>
       <c r="E72" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="F72" t="n">
         <v>10.88</v>
@@ -2264,7 +2264,7 @@
         <v>8.07</v>
       </c>
       <c r="D73" t="n">
-        <v>95868.92999999999</v>
+        <v>95890.89</v>
       </c>
       <c r="E73" t="n">
         <v>0.99</v>
@@ -2286,13 +2286,13 @@
         <v>1.75</v>
       </c>
       <c r="C74" t="n">
-        <v>28.85</v>
+        <v>28.8</v>
       </c>
       <c r="D74" t="n">
-        <v>7425.19</v>
+        <v>7445.09</v>
       </c>
       <c r="E74" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="F74" t="n">
         <v>-15.07</v>
@@ -2308,16 +2308,16 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.22</v>
+        <v>4.2</v>
       </c>
       <c r="C75" t="n">
-        <v>5.7</v>
+        <v>5.67</v>
       </c>
       <c r="D75" t="n">
-        <v>154360.11</v>
+        <v>155333.38</v>
       </c>
       <c r="E75" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="F75" t="n">
         <v>26.39</v>
@@ -2333,16 +2333,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6.81</v>
+        <v>6.8</v>
       </c>
       <c r="C76" t="n">
-        <v>60.01</v>
+        <v>59.98</v>
       </c>
       <c r="D76" t="n">
-        <v>10059.91</v>
+        <v>10072.46</v>
       </c>
       <c r="E76" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="F76" t="n">
         <v>29.8</v>
@@ -2359,10 +2359,10 @@
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>67.90000000000001</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>102534.27</v>
+        <v>102748.37</v>
       </c>
       <c r="E77" t="n">
         <v>1.63</v>
@@ -2381,16 +2381,16 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4.82</v>
+        <v>4.77</v>
       </c>
       <c r="C78" t="n">
-        <v>41.98</v>
+        <v>41.76</v>
       </c>
       <c r="D78" t="n">
-        <v>12953.55</v>
+        <v>13070.42</v>
       </c>
       <c r="E78" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="F78" t="n">
         <v>7.26</v>
@@ -2412,10 +2412,10 @@
         <v>4.12</v>
       </c>
       <c r="D79" t="n">
-        <v>26378.85</v>
+        <v>26342.45</v>
       </c>
       <c r="E79" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="F79" t="n">
         <v>14.52</v>
@@ -2434,13 +2434,13 @@
         <v>1.33</v>
       </c>
       <c r="C80" t="n">
-        <v>11.41</v>
+        <v>11.35</v>
       </c>
       <c r="D80" t="n">
-        <v>46465.8</v>
+        <v>46749.58</v>
       </c>
       <c r="E80" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="F80" t="n">
         <v>16.28</v>
@@ -2459,13 +2459,13 @@
         <v>1.57</v>
       </c>
       <c r="C81" t="n">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="D81" t="n">
-        <v>163227.13</v>
+        <v>163764.14</v>
       </c>
       <c r="E81" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="F81" t="n">
         <v>16.54</v>
@@ -2484,10 +2484,10 @@
         <v>1.34</v>
       </c>
       <c r="C82" t="n">
-        <v>10.63</v>
+        <v>10.62</v>
       </c>
       <c r="D82" t="n">
-        <v>102415.29</v>
+        <v>102492</v>
       </c>
       <c r="E82" t="n">
         <v>0.85</v>
@@ -2509,10 +2509,10 @@
         <v>1.08</v>
       </c>
       <c r="C83" t="n">
-        <v>6.55</v>
+        <v>6.56</v>
       </c>
       <c r="D83" t="n">
-        <v>19471.71</v>
+        <v>19442.05</v>
       </c>
       <c r="E83" t="n">
         <v>1.05</v>
@@ -2534,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>7.78</v>
+        <v>7.76</v>
       </c>
       <c r="D84" t="n">
-        <v>26849.85</v>
+        <v>26918.28</v>
       </c>
       <c r="E84" t="n">
         <v>1.33</v>
@@ -2556,13 +2556,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>5.8</v>
+        <v>5.79</v>
       </c>
       <c r="C85" t="n">
-        <v>37.94</v>
+        <v>37.9</v>
       </c>
       <c r="D85" t="n">
-        <v>46957.72</v>
+        <v>47045.6</v>
       </c>
       <c r="E85" t="n">
         <v>1.88</v>
@@ -2584,13 +2584,13 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>60.56</v>
+        <v>60.37</v>
       </c>
       <c r="D86" t="n">
-        <v>19193.84</v>
+        <v>19351.84</v>
       </c>
       <c r="E86" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="F86" t="n">
         <v>53.76</v>
@@ -2612,7 +2612,7 @@
         <v>0.05</v>
       </c>
       <c r="D87" t="n">
-        <v>85202.75999999999</v>
+        <v>85058.24000000001</v>
       </c>
       <c r="E87" t="n">
         <v>1.69</v>
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>14.97</v>
+        <v>14.89</v>
       </c>
       <c r="D88" t="n">
-        <v>33028.12</v>
+        <v>33228.66</v>
       </c>
       <c r="E88" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="F88" t="n">
         <v>9.34</v>
@@ -2659,13 +2659,13 @@
         <v>1.84</v>
       </c>
       <c r="C89" t="n">
-        <v>45.81</v>
+        <v>45.74</v>
       </c>
       <c r="D89" t="n">
-        <v>16108.38</v>
+        <v>16153.94</v>
       </c>
       <c r="E89" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="F89" t="n">
         <v>27.9</v>
@@ -2684,10 +2684,10 @@
         <v>0.43</v>
       </c>
       <c r="C90" t="n">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="D90" t="n">
-        <v>43279.44</v>
+        <v>43236.91</v>
       </c>
       <c r="E90" t="n">
         <v>1.93</v>
@@ -2706,16 +2706,16 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>5.6</v>
+        <v>5.58</v>
       </c>
       <c r="D91" t="n">
-        <v>15210.2</v>
+        <v>15272.79</v>
       </c>
       <c r="E91" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="F91" t="n">
         <v>-6.98</v>
@@ -2731,16 +2731,16 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>6.1</v>
+        <v>6.07</v>
       </c>
       <c r="C92" t="n">
-        <v>11.71</v>
+        <v>11.66</v>
       </c>
       <c r="D92" t="n">
-        <v>14622.21</v>
+        <v>14692.17</v>
       </c>
       <c r="E92" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="F92" t="n">
         <v>33.16</v>
@@ -2759,13 +2759,13 @@
         <v>1.11</v>
       </c>
       <c r="C93" t="n">
-        <v>9.68</v>
+        <v>9.66</v>
       </c>
       <c r="D93" t="n">
-        <v>24040.82</v>
+        <v>24104.23</v>
       </c>
       <c r="E93" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="F93" t="n">
         <v>8.359999999999999</v>
@@ -2781,13 +2781,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3.36</v>
+        <v>3.35</v>
       </c>
       <c r="C94" t="n">
-        <v>17.21</v>
+        <v>17.18</v>
       </c>
       <c r="D94" t="n">
-        <v>8689.92</v>
+        <v>8710.33</v>
       </c>
       <c r="E94" t="n">
         <v>3.01</v>
@@ -2809,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>69.34999999999999</v>
+        <v>69.27</v>
       </c>
       <c r="D95" t="n">
-        <v>42898.36</v>
+        <v>43066.99</v>
       </c>
       <c r="E95" t="n">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="F95" t="n">
         <v>-15.07</v>
@@ -2834,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>19.79</v>
+        <v>19.82</v>
       </c>
       <c r="D96" t="n">
-        <v>100211.77</v>
+        <v>100035.55</v>
       </c>
       <c r="E96" t="n">
         <v>1.56</v>
@@ -2856,16 +2856,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="C97" t="n">
-        <v>-2.22</v>
+        <v>-2.23</v>
       </c>
       <c r="D97" t="n">
-        <v>17161.6</v>
+        <v>17106.62</v>
       </c>
       <c r="E97" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="F97" t="n">
         <v>8.859999999999999</v>
@@ -2884,13 +2884,13 @@
         <v>2.55</v>
       </c>
       <c r="C98" t="n">
-        <v>9.74</v>
+        <v>9.73</v>
       </c>
       <c r="D98" t="n">
-        <v>68574.57000000001</v>
+        <v>68718.64999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F98" t="n">
         <v>10.43</v>
@@ -2906,16 +2906,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="C99" t="n">
-        <v>12.02</v>
+        <v>12</v>
       </c>
       <c r="D99" t="n">
-        <v>18929.99</v>
+        <v>18969.23</v>
       </c>
       <c r="E99" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="F99" t="n">
         <v>16.69</v>
@@ -2937,7 +2937,7 @@
         <v>3.82</v>
       </c>
       <c r="D100" t="n">
-        <v>6769.02</v>
+        <v>6772.98</v>
       </c>
       <c r="E100" t="n">
         <v>1.92</v>
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="C101" t="n">
-        <v>36.39</v>
+        <v>36.34</v>
       </c>
       <c r="D101" t="n">
-        <v>170355.83</v>
+        <v>170741.39</v>
       </c>
       <c r="E101" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="F101" t="n">
         <v>0.3</v>
@@ -2987,7 +2987,7 @@
         <v>1.51</v>
       </c>
       <c r="D102" t="n">
-        <v>73624.13</v>
+        <v>73613.36</v>
       </c>
       <c r="E102" t="n">
         <v>0.78</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>3.73</v>
+        <v>3.74</v>
       </c>
       <c r="D103" t="n">
-        <v>73021.25999999999</v>
+        <v>72889.7</v>
       </c>
       <c r="E103" t="n">
         <v>1.85</v>
@@ -3031,16 +3031,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="C104" t="n">
-        <v>14.03</v>
+        <v>13.98</v>
       </c>
       <c r="D104" t="n">
-        <v>35430.68</v>
+        <v>35576.51</v>
       </c>
       <c r="E104" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="F104" t="n">
         <v>8.19</v>
@@ -3059,10 +3059,10 @@
         <v>3.34</v>
       </c>
       <c r="C105" t="n">
-        <v>48.52</v>
+        <v>48.48</v>
       </c>
       <c r="D105" t="n">
-        <v>16335.52</v>
+        <v>16358.54</v>
       </c>
       <c r="E105" t="n">
         <v>1.24</v>
@@ -3084,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>14.02</v>
+        <v>14.01</v>
       </c>
       <c r="D106" t="n">
-        <v>42551.26</v>
+        <v>42589.81</v>
       </c>
       <c r="E106" t="n">
         <v>1.35</v>
@@ -3109,13 +3109,13 @@
         <v>2.82</v>
       </c>
       <c r="C107" t="n">
-        <v>49.04</v>
+        <v>49.08</v>
       </c>
       <c r="D107" t="n">
-        <v>17359.45</v>
+        <v>17331.12</v>
       </c>
       <c r="E107" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F107" t="n">
         <v>5.27</v>
@@ -3131,13 +3131,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2.3</v>
+        <v>2.29</v>
       </c>
       <c r="C108" t="n">
-        <v>11.33</v>
+        <v>11.31</v>
       </c>
       <c r="D108" t="n">
-        <v>51312.16</v>
+        <v>51418.67</v>
       </c>
       <c r="E108" t="n">
         <v>1.5</v>
@@ -3159,10 +3159,10 @@
         <v>0.02</v>
       </c>
       <c r="C109" t="n">
-        <v>12.65</v>
+        <v>12.66</v>
       </c>
       <c r="D109" t="n">
-        <v>18651.11</v>
+        <v>18641.7</v>
       </c>
       <c r="E109" t="n">
         <v>1.13</v>
@@ -3184,13 +3184,13 @@
         <v>4.1</v>
       </c>
       <c r="C110" t="n">
-        <v>5.51</v>
+        <v>5.52</v>
       </c>
       <c r="D110" t="n">
-        <v>136190.69</v>
+        <v>136043.84</v>
       </c>
       <c r="E110" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="F110" t="n">
         <v>-9.960000000000001</v>
@@ -3209,13 +3209,13 @@
         <v>0.86</v>
       </c>
       <c r="C111" t="n">
-        <v>6.68</v>
+        <v>6.65</v>
       </c>
       <c r="D111" t="n">
-        <v>46152.26</v>
+        <v>46325.97</v>
       </c>
       <c r="E111" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="F111" t="n">
         <v>16.25</v>
@@ -3237,10 +3237,10 @@
         <v>-1.91</v>
       </c>
       <c r="D112" t="n">
-        <v>320894.8</v>
+        <v>320316.47</v>
       </c>
       <c r="E112" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="F112" t="n">
         <v>23.57</v>
@@ -3256,16 +3256,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3.59</v>
+        <v>3.57</v>
       </c>
       <c r="C113" t="n">
-        <v>27.74</v>
+        <v>27.63</v>
       </c>
       <c r="D113" t="n">
-        <v>12444.48</v>
+        <v>12513.02</v>
       </c>
       <c r="E113" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="F113" t="n">
         <v>9.32</v>
@@ -3284,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>-4.81</v>
+        <v>-4.83</v>
       </c>
       <c r="D114" t="n">
-        <v>48909.56</v>
+        <v>48738.39</v>
       </c>
       <c r="E114" t="n">
         <v>1.16</v>
@@ -3309,10 +3309,10 @@
         <v>3.85</v>
       </c>
       <c r="C115" t="n">
-        <v>25.12</v>
+        <v>25.1</v>
       </c>
       <c r="D115" t="n">
-        <v>10303.35</v>
+        <v>10312</v>
       </c>
       <c r="E115" t="n">
         <v>1.48</v>
@@ -3334,13 +3334,13 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>20.41</v>
+        <v>20.47</v>
       </c>
       <c r="D116" t="n">
-        <v>11361.53</v>
+        <v>11320.78</v>
       </c>
       <c r="E116" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="F116" t="n">
         <v>14.07</v>
@@ -3362,7 +3362,7 @@
         <v>0.8</v>
       </c>
       <c r="D117" t="n">
-        <v>294264.77</v>
+        <v>293921.69</v>
       </c>
       <c r="E117" t="n">
         <v>1.18</v>
@@ -3387,7 +3387,7 @@
         <v>-8.94</v>
       </c>
       <c r="D118" t="n">
-        <v>204019.67</v>
+        <v>203828.58</v>
       </c>
       <c r="E118" t="n">
         <v>1.18</v>
@@ -3409,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>-12.88</v>
+        <v>-12.9</v>
       </c>
       <c r="D119" t="n">
-        <v>33843.16</v>
+        <v>33806.56</v>
       </c>
       <c r="E119" t="n">
         <v>1.65</v>
@@ -3434,10 +3434,10 @@
         <v>1.21</v>
       </c>
       <c r="C120" t="n">
-        <v>19.01</v>
+        <v>19</v>
       </c>
       <c r="D120" t="n">
-        <v>72859.71000000001</v>
+        <v>72899.42999999999</v>
       </c>
       <c r="E120" t="n">
         <v>0.79</v>
@@ -3456,16 +3456,16 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="C121" t="n">
-        <v>3.88</v>
+        <v>3.89</v>
       </c>
       <c r="D121" t="n">
-        <v>63082.07</v>
+        <v>62892.85</v>
       </c>
       <c r="E121" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="F121" t="n">
         <v>19.03</v>
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>31.28</v>
+        <v>31.23</v>
       </c>
       <c r="D122" t="n">
-        <v>10180.8</v>
+        <v>10207.8</v>
       </c>
       <c r="E122" t="n">
         <v>2.85</v>
@@ -3506,13 +3506,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>10.68</v>
+        <v>10.67</v>
       </c>
       <c r="C123" t="n">
-        <v>9.359999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="D123" t="n">
-        <v>18645.3</v>
+        <v>18668.34</v>
       </c>
       <c r="E123" t="n">
         <v>1.11</v>
@@ -3534,13 +3534,13 @@
         <v>1.51</v>
       </c>
       <c r="C124" t="n">
-        <v>-2.5</v>
+        <v>-2.49</v>
       </c>
       <c r="D124" t="n">
-        <v>39177.73</v>
+        <v>39243.9</v>
       </c>
       <c r="E124" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F124" t="n">
         <v>18.6</v>
@@ -3562,7 +3562,7 @@
         <v>-0.68</v>
       </c>
       <c r="D125" t="n">
-        <v>37577.02</v>
+        <v>37587.53</v>
       </c>
       <c r="E125" t="n">
         <v>4.51</v>
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="C126" t="n">
-        <v>35.74</v>
+        <v>35.67</v>
       </c>
       <c r="D126" t="n">
-        <v>98910.5</v>
+        <v>99216</v>
       </c>
       <c r="E126" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="F126" t="n">
         <v>10.88</v>
@@ -3606,16 +3606,16 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3.9</v>
+        <v>3.91</v>
       </c>
       <c r="C127" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="D127" t="n">
-        <v>289963.74</v>
+        <v>289274.26</v>
       </c>
       <c r="E127" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="F127" t="n">
         <v>-11.72</v>
@@ -3634,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>72.31999999999999</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>9604.41</v>
+        <v>9552.889999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="F128" t="n">
         <v>7.4</v>
@@ -3656,16 +3656,16 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="C129" t="n">
-        <v>55.34</v>
+        <v>55.25</v>
       </c>
       <c r="D129" t="n">
-        <v>37182.55</v>
+        <v>37324.5</v>
       </c>
       <c r="E129" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="F129" t="n">
         <v>18.27</v>
@@ -3684,10 +3684,10 @@
         <v>0.49</v>
       </c>
       <c r="C130" t="n">
-        <v>47.4</v>
+        <v>47.24</v>
       </c>
       <c r="D130" t="n">
-        <v>25899.34</v>
+        <v>26066.7</v>
       </c>
       <c r="E130" t="n">
         <v>1.94</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>7.11</v>
+        <v>7.04</v>
       </c>
       <c r="D131" t="n">
-        <v>10763.81</v>
+        <v>10876.13</v>
       </c>
       <c r="E131" t="n">
         <v>1.61</v>
@@ -3731,16 +3731,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="C132" t="n">
-        <v>13.3</v>
+        <v>13.24</v>
       </c>
       <c r="D132" t="n">
-        <v>30840.93</v>
+        <v>31005.85</v>
       </c>
       <c r="E132" t="n">
-        <v>3.76</v>
+        <v>3.77</v>
       </c>
       <c r="F132" t="n">
         <v>3.45</v>
@@ -3762,10 +3762,10 @@
         <v>2.38</v>
       </c>
       <c r="D133" t="n">
-        <v>107331.48</v>
+        <v>107365.27</v>
       </c>
       <c r="E133" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F133" t="n">
         <v>3.03</v>
@@ -3784,10 +3784,10 @@
         <v>2.58</v>
       </c>
       <c r="C134" t="n">
-        <v>-17.51</v>
+        <v>-17.43</v>
       </c>
       <c r="D134" t="n">
-        <v>27197.5</v>
+        <v>27295</v>
       </c>
       <c r="E134" t="n">
         <v>2.9</v>
@@ -3809,13 +3809,13 @@
         <v>1.67</v>
       </c>
       <c r="C135" t="n">
-        <v>36.88</v>
+        <v>36.84</v>
       </c>
       <c r="D135" t="n">
-        <v>29573.7</v>
+        <v>29625.19</v>
       </c>
       <c r="E135" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="F135" t="n">
         <v>16.85</v>
@@ -3831,16 +3831,16 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="C136" t="n">
-        <v>25.05</v>
+        <v>24.97</v>
       </c>
       <c r="D136" t="n">
-        <v>14013.75</v>
+        <v>14068.14</v>
       </c>
       <c r="E136" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F136" t="n">
         <v>9.35</v>
@@ -3862,7 +3862,7 @@
         <v>2.55</v>
       </c>
       <c r="D137" t="n">
-        <v>48496.12</v>
+        <v>48522.91</v>
       </c>
       <c r="E137" t="n">
         <v>2.52</v>
@@ -3881,16 +3881,16 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="C138" t="n">
-        <v>6.49</v>
+        <v>6.53</v>
       </c>
       <c r="D138" t="n">
-        <v>180527.42</v>
+        <v>179588.64</v>
       </c>
       <c r="E138" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="F138" t="n">
         <v>9.43</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>15.89</v>
+        <v>15.9</v>
       </c>
       <c r="D139" t="n">
-        <v>193167.26</v>
+        <v>193042.59</v>
       </c>
       <c r="E139" t="n">
         <v>2.94</v>
@@ -3931,13 +3931,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="C140" t="n">
-        <v>29.58</v>
+        <v>29.49</v>
       </c>
       <c r="D140" t="n">
-        <v>42679.15</v>
+        <v>42854.07</v>
       </c>
       <c r="E140" t="n">
         <v>1.56</v>
@@ -3959,13 +3959,13 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>23.53</v>
+        <v>23.51</v>
       </c>
       <c r="D141" t="n">
-        <v>30816.36</v>
+        <v>30860.61</v>
       </c>
       <c r="E141" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="F141" t="n">
         <v>22.83</v>
@@ -3984,10 +3984,10 @@
         <v>1.27</v>
       </c>
       <c r="C142" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="D142" t="n">
-        <v>22464.95</v>
+        <v>22456.56</v>
       </c>
       <c r="E142" t="n">
         <v>1.35</v>
@@ -4009,10 +4009,10 @@
         <v>5.2</v>
       </c>
       <c r="C143" t="n">
-        <v>26.36</v>
+        <v>26.37</v>
       </c>
       <c r="D143" t="n">
-        <v>37930.87</v>
+        <v>37916.82</v>
       </c>
       <c r="E143" t="n">
         <v>1.21</v>
@@ -4031,13 +4031,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="C144" t="n">
-        <v>25.52</v>
+        <v>25.59</v>
       </c>
       <c r="D144" t="n">
-        <v>15112.41</v>
+        <v>15056.57</v>
       </c>
       <c r="E144" t="n">
         <v>1.52</v>
@@ -4059,10 +4059,10 @@
         <v>2.9</v>
       </c>
       <c r="C145" t="n">
-        <v>21.46</v>
+        <v>21.48</v>
       </c>
       <c r="D145" t="n">
-        <v>20324.21</v>
+        <v>20303.63</v>
       </c>
       <c r="E145" t="n">
         <v>0.98</v>
@@ -4084,10 +4084,10 @@
         <v>3.19</v>
       </c>
       <c r="C146" t="n">
-        <v>47.23</v>
+        <v>47.21</v>
       </c>
       <c r="D146" t="n">
-        <v>21446.43</v>
+        <v>21470.08</v>
       </c>
       <c r="E146" t="n">
         <v>1.13</v>
@@ -4106,16 +4106,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="C147" t="n">
-        <v>51.85</v>
+        <v>51.98</v>
       </c>
       <c r="D147" t="n">
-        <v>70970.89999999999</v>
+        <v>70601.3</v>
       </c>
       <c r="E147" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="F147" t="n">
         <v>13.13</v>
@@ -4134,13 +4134,13 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>53.37</v>
+        <v>53.66</v>
       </c>
       <c r="D148" t="n">
-        <v>10048.28</v>
+        <v>9932.549999999999</v>
       </c>
       <c r="E148" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="F148" t="n">
         <v>40.74</v>
@@ -4156,16 +4156,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>12.48</v>
+        <v>12.44</v>
       </c>
       <c r="C149" t="n">
-        <v>16.28</v>
+        <v>16.24</v>
       </c>
       <c r="D149" t="n">
-        <v>27076.65</v>
+        <v>27158.27</v>
       </c>
       <c r="E149" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="F149" t="n">
         <v>-11.49</v>
@@ -4187,10 +4187,10 @@
         <v>-0.66</v>
       </c>
       <c r="D150" t="n">
-        <v>46954.77</v>
+        <v>46537.56</v>
       </c>
       <c r="E150" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="F150" t="n">
         <v>45.4</v>
@@ -4212,7 +4212,7 @@
         <v>-1.44</v>
       </c>
       <c r="D151" t="n">
-        <v>38394.72</v>
+        <v>38386.53</v>
       </c>
       <c r="E151" t="n">
         <v>0.83</v>
@@ -4231,22 +4231,22 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="C152" t="n">
-        <v>13.41</v>
+        <v>13.45</v>
       </c>
       <c r="D152" t="n">
-        <v>22954.72</v>
+        <v>22869.77</v>
       </c>
       <c r="E152" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="F152" t="n">
         <v>1.1</v>
       </c>
       <c r="G152" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="153">
@@ -4259,13 +4259,13 @@
         <v>1.05</v>
       </c>
       <c r="C153" t="n">
-        <v>12.81</v>
+        <v>12.75</v>
       </c>
       <c r="D153" t="n">
-        <v>57362.31</v>
+        <v>57673.84</v>
       </c>
       <c r="E153" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F153" t="n">
         <v>24.38</v>
@@ -4281,13 +4281,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="C154" t="n">
-        <v>42.26</v>
+        <v>42.25</v>
       </c>
       <c r="D154" t="n">
-        <v>31605.65</v>
+        <v>31616.3</v>
       </c>
       <c r="E154" t="n">
         <v>0.98</v>
@@ -4309,13 +4309,13 @@
         <v>0.63</v>
       </c>
       <c r="C155" t="n">
-        <v>15.49</v>
+        <v>15.52</v>
       </c>
       <c r="D155" t="n">
-        <v>30595.6</v>
+        <v>30524.55</v>
       </c>
       <c r="E155" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="F155" t="n">
         <v>38.21</v>
@@ -4334,10 +4334,10 @@
         <v>2.09</v>
       </c>
       <c r="C156" t="n">
-        <v>11.75</v>
+        <v>11.73</v>
       </c>
       <c r="D156" t="n">
-        <v>13773.44</v>
+        <v>13796.64</v>
       </c>
       <c r="E156" t="n">
         <v>1.92</v>
@@ -4356,16 +4356,16 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4.23</v>
+        <v>4.25</v>
       </c>
       <c r="C157" t="n">
-        <v>56.48</v>
+        <v>56.55</v>
       </c>
       <c r="D157" t="n">
-        <v>24801.51</v>
+        <v>24728.89</v>
       </c>
       <c r="E157" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="F157" t="n">
         <v>13.79</v>
@@ -4384,13 +4384,13 @@
         <v>1.8</v>
       </c>
       <c r="C158" t="n">
-        <v>10.7</v>
+        <v>10.71</v>
       </c>
       <c r="D158" t="n">
-        <v>51329.19</v>
+        <v>51261.24</v>
       </c>
       <c r="E158" t="n">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="F158" t="n">
         <v>-1.81</v>
@@ -4409,13 +4409,13 @@
         <v>1.17</v>
       </c>
       <c r="C159" t="n">
-        <v>-10.44</v>
+        <v>-10.45</v>
       </c>
       <c r="D159" t="n">
-        <v>118999.74</v>
+        <v>118908.1</v>
       </c>
       <c r="E159" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F159" t="n">
         <v>4.7</v>
@@ -4431,13 +4431,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3.9</v>
+        <v>3.89</v>
       </c>
       <c r="C160" t="n">
-        <v>33.49</v>
+        <v>33.45</v>
       </c>
       <c r="D160" t="n">
-        <v>9643.82</v>
+        <v>9658.48</v>
       </c>
       <c r="E160" t="n">
         <v>1.29</v>
@@ -4462,7 +4462,7 @@
         <v>1.1</v>
       </c>
       <c r="D161" t="n">
-        <v>58950.32</v>
+        <v>59030.4</v>
       </c>
       <c r="E161" t="n">
         <v>2.72</v>
@@ -4484,13 +4484,13 @@
         <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>-1.8</v>
+        <v>-1.82</v>
       </c>
       <c r="D162" t="n">
-        <v>16840.23</v>
+        <v>16709.93</v>
       </c>
       <c r="E162" t="n">
-        <v>4.74</v>
+        <v>4.7</v>
       </c>
       <c r="F162" t="n">
         <v>11.46</v>
@@ -4534,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>-10.31</v>
+        <v>-10.35</v>
       </c>
       <c r="D164" t="n">
-        <v>16563.71</v>
+        <v>16504.9</v>
       </c>
       <c r="E164" t="n">
         <v>1.55</v>
@@ -4556,13 +4556,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="C165" t="n">
-        <v>15.54</v>
+        <v>15.52</v>
       </c>
       <c r="D165" t="n">
-        <v>79130.96000000001</v>
+        <v>79261.09</v>
       </c>
       <c r="E165" t="n">
         <v>1.27</v>
@@ -4581,13 +4581,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>4.18</v>
+        <v>4.17</v>
       </c>
       <c r="C166" t="n">
-        <v>25.56</v>
+        <v>25.52</v>
       </c>
       <c r="D166" t="n">
-        <v>22287.09</v>
+        <v>22325.09</v>
       </c>
       <c r="E166" t="n">
         <v>1.18</v>
@@ -4609,10 +4609,10 @@
         <v>1.62</v>
       </c>
       <c r="C167" t="n">
-        <v>25.34</v>
+        <v>25.39</v>
       </c>
       <c r="D167" t="n">
-        <v>12573.97</v>
+        <v>12542.91</v>
       </c>
       <c r="E167" t="n">
         <v>1.37</v>
@@ -4631,16 +4631,16 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>4.52</v>
+        <v>4.53</v>
       </c>
       <c r="C168" t="n">
-        <v>53.65</v>
+        <v>53.71</v>
       </c>
       <c r="D168" t="n">
-        <v>19199.26</v>
+        <v>19157.44</v>
       </c>
       <c r="E168" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="F168" t="n">
         <v>6.32</v>
@@ -4656,13 +4656,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>3.83</v>
+        <v>3.81</v>
       </c>
       <c r="C169" t="n">
-        <v>28.94</v>
+        <v>28.84</v>
       </c>
       <c r="D169" t="n">
-        <v>14773.13</v>
+        <v>14846.14</v>
       </c>
       <c r="E169" t="n">
         <v>1.23</v>
@@ -4684,10 +4684,10 @@
         <v>1.17</v>
       </c>
       <c r="C170" t="n">
-        <v>6.08</v>
+        <v>6.09</v>
       </c>
       <c r="D170" t="n">
-        <v>111073.29</v>
+        <v>110989.42</v>
       </c>
       <c r="E170" t="n">
         <v>1.94</v>
@@ -4706,16 +4706,16 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="C171" t="n">
-        <v>56.45</v>
+        <v>56.37</v>
       </c>
       <c r="D171" t="n">
-        <v>20621.39</v>
+        <v>20684.74</v>
       </c>
       <c r="E171" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="F171" t="n">
         <v>10.8</v>
@@ -4734,13 +4734,13 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>11.41</v>
+        <v>11.43</v>
       </c>
       <c r="D172" t="n">
-        <v>9784.450000000001</v>
+        <v>9765.49</v>
       </c>
       <c r="E172" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="F172" t="n">
         <v>8.380000000000001</v>
@@ -4756,16 +4756,16 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>4.73</v>
+        <v>4.75</v>
       </c>
       <c r="C173" t="n">
-        <v>51.69</v>
+        <v>51.76</v>
       </c>
       <c r="D173" t="n">
-        <v>11295.96</v>
+        <v>11266.12</v>
       </c>
       <c r="E173" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="F173" t="n">
         <v>11.33</v>
@@ -4787,10 +4787,10 @@
         <v>-1.02</v>
       </c>
       <c r="D174" t="n">
-        <v>52033.98</v>
+        <v>51711.58</v>
       </c>
       <c r="E174" t="n">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="F174" t="n">
         <v>6.55</v>
@@ -4809,10 +4809,10 @@
         <v>3.97</v>
       </c>
       <c r="C175" t="n">
-        <v>53.96</v>
+        <v>53.93</v>
       </c>
       <c r="D175" t="n">
-        <v>33597.2</v>
+        <v>33636.96</v>
       </c>
       <c r="E175" t="n">
         <v>1.09</v>
@@ -4831,13 +4831,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="C176" t="n">
-        <v>-8.42</v>
+        <v>-8.359999999999999</v>
       </c>
       <c r="D176" t="n">
-        <v>19514.42</v>
+        <v>19653.3</v>
       </c>
       <c r="E176" t="n">
         <v>1.11</v>
@@ -4859,13 +4859,13 @@
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>10.97</v>
+        <v>11</v>
       </c>
       <c r="D177" t="n">
-        <v>20175.04</v>
+        <v>20096.54</v>
       </c>
       <c r="E177" t="n">
-        <v>4.25</v>
+        <v>4.31</v>
       </c>
       <c r="F177" t="n">
         <v>58.69</v>
@@ -4881,13 +4881,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>4.21</v>
+        <v>4.19</v>
       </c>
       <c r="C178" t="n">
-        <v>28.07</v>
+        <v>28</v>
       </c>
       <c r="D178" t="n">
-        <v>19131.96</v>
+        <v>19201.6</v>
       </c>
       <c r="E178" t="n">
         <v>1.24</v>
@@ -4909,10 +4909,10 @@
         <v>9.880000000000001</v>
       </c>
       <c r="C179" t="n">
-        <v>-31.99</v>
+        <v>-32</v>
       </c>
       <c r="D179" t="n">
-        <v>50564.72</v>
+        <v>50544.79</v>
       </c>
       <c r="E179" t="n">
         <v>2.5</v>
@@ -4934,13 +4934,13 @@
         <v>5.76</v>
       </c>
       <c r="C180" t="n">
-        <v>18.26</v>
+        <v>18.25</v>
       </c>
       <c r="D180" t="n">
-        <v>27269.26</v>
+        <v>27289.04</v>
       </c>
       <c r="E180" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="F180" t="n">
         <v>-7.59</v>
@@ -4962,7 +4962,7 @@
         <v>0.78</v>
       </c>
       <c r="D181" t="n">
-        <v>40018.74</v>
+        <v>40050.2</v>
       </c>
       <c r="E181" t="n">
         <v>1.89</v>
@@ -4984,10 +4984,10 @@
         <v>1.61</v>
       </c>
       <c r="C182" t="n">
-        <v>8</v>
+        <v>8.01</v>
       </c>
       <c r="D182" t="n">
-        <v>53602.07</v>
+        <v>53573.39</v>
       </c>
       <c r="E182" t="n">
         <v>2.38</v>
@@ -5006,16 +5006,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="C183" t="n">
-        <v>7.1</v>
+        <v>7.07</v>
       </c>
       <c r="D183" t="n">
-        <v>18091.33</v>
+        <v>18160.54</v>
       </c>
       <c r="E183" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="F183" t="n">
         <v>8.470000000000001</v>
@@ -5031,13 +5031,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="C184" t="n">
-        <v>34.11</v>
+        <v>34.06</v>
       </c>
       <c r="D184" t="n">
-        <v>60804.9</v>
+        <v>60943.05</v>
       </c>
       <c r="E184" t="n">
         <v>1.01</v>
@@ -5056,16 +5056,16 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>4.2</v>
+        <v>4.17</v>
       </c>
       <c r="C185" t="n">
-        <v>50.59</v>
+        <v>50.46</v>
       </c>
       <c r="D185" t="n">
-        <v>21231.78</v>
+        <v>21346.21</v>
       </c>
       <c r="E185" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="F185" t="n">
         <v>8.76</v>
@@ -5084,13 +5084,13 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>-5</v>
+        <v>-5.01</v>
       </c>
       <c r="D186" t="n">
-        <v>11068.78</v>
+        <v>11048.62</v>
       </c>
       <c r="E186" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F186" t="n">
         <v>18.73</v>
@@ -5109,10 +5109,10 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>19</v>
+        <v>18.97</v>
       </c>
       <c r="D187" t="n">
-        <v>90691.64999999999</v>
+        <v>90864.89999999999</v>
       </c>
       <c r="E187" t="n">
         <v>0.88</v>
@@ -5137,7 +5137,7 @@
         <v>5.02</v>
       </c>
       <c r="D188" t="n">
-        <v>32782.85</v>
+        <v>32790.78</v>
       </c>
       <c r="E188" t="n">
         <v>2.18</v>
@@ -5156,16 +5156,16 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="C189" t="n">
-        <v>33.45</v>
+        <v>33.47</v>
       </c>
       <c r="D189" t="n">
-        <v>36541.65</v>
+        <v>36500.16</v>
       </c>
       <c r="E189" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="F189" t="n">
         <v>22.6</v>
@@ -5181,16 +5181,16 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="C190" t="n">
-        <v>-34.13</v>
+        <v>-33.8</v>
       </c>
       <c r="D190" t="n">
-        <v>22756.39</v>
+        <v>22919.86</v>
       </c>
       <c r="E190" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="F190" t="n">
         <v>47.53</v>
@@ -5209,13 +5209,13 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>22.13</v>
+        <v>22.16</v>
       </c>
       <c r="D191" t="n">
-        <v>20095.34</v>
+        <v>20055.72</v>
       </c>
       <c r="E191" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="F191" t="n">
         <v>18.82</v>
@@ -5234,13 +5234,13 @@
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>30.77</v>
+        <v>30.58</v>
       </c>
       <c r="D192" t="n">
-        <v>6418.18</v>
+        <v>6474.48</v>
       </c>
       <c r="E192" t="n">
-        <v>4.01</v>
+        <v>4</v>
       </c>
       <c r="F192" t="n">
         <v>-13.05</v>
@@ -5287,16 +5287,16 @@
         </is>
       </c>
       <c r="B194" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C194" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="D194" t="n">
+        <v>14839.76</v>
+      </c>
+      <c r="E194" t="n">
         <v>2.02</v>
-      </c>
-      <c r="C194" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="D194" t="n">
-        <v>14809.85</v>
-      </c>
-      <c r="E194" t="n">
-        <v>2</v>
       </c>
       <c r="F194" t="n">
         <v>1.7</v>
@@ -5312,16 +5312,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="C195" t="n">
-        <v>34.89</v>
+        <v>34.79</v>
       </c>
       <c r="D195" t="n">
-        <v>8189.99</v>
+        <v>8227.030000000001</v>
       </c>
       <c r="E195" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="F195" t="n">
         <v>17.88</v>
@@ -5340,13 +5340,13 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>-16.89</v>
+        <v>-16.98</v>
       </c>
       <c r="D196" t="n">
-        <v>16223.24</v>
+        <v>16151.28</v>
       </c>
       <c r="E196" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="F196" t="n">
         <v>6.41</v>
@@ -5365,13 +5365,13 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>-2.08</v>
+        <v>-2.09</v>
       </c>
       <c r="D197" t="n">
-        <v>55287.22</v>
+        <v>55048.86</v>
       </c>
       <c r="E197" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="F197" t="n">
         <v>10.79</v>
@@ -5390,10 +5390,10 @@
         <v>0.35</v>
       </c>
       <c r="C198" t="n">
-        <v>5.72</v>
+        <v>5.71</v>
       </c>
       <c r="D198" t="n">
-        <v>28971.33</v>
+        <v>29002.89</v>
       </c>
       <c r="E198" t="n">
         <v>1.65</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="C199" t="n">
-        <v>9.06</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D199" t="n">
-        <v>73789.91</v>
+        <v>73910.28999999999</v>
       </c>
       <c r="E199" t="n">
         <v>1.32</v>
@@ -5443,7 +5443,7 @@
         <v>-17.65</v>
       </c>
       <c r="D200" t="n">
-        <v>151601.28</v>
+        <v>151590.4</v>
       </c>
       <c r="E200" t="n">
         <v>1</v>
@@ -5465,10 +5465,10 @@
         <v>0.11</v>
       </c>
       <c r="C201" t="n">
-        <v>16.04</v>
+        <v>16.02</v>
       </c>
       <c r="D201" t="n">
-        <v>36949.74</v>
+        <v>36986.11</v>
       </c>
       <c r="E201" t="n">
         <v>2.97</v>
@@ -5490,13 +5490,13 @@
         <v>2.3</v>
       </c>
       <c r="C202" t="n">
-        <v>39.94</v>
+        <v>39.89</v>
       </c>
       <c r="D202" t="n">
-        <v>13638.4</v>
+        <v>13664</v>
       </c>
       <c r="E202" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="F202" t="n">
         <v>34.56</v>
@@ -5512,16 +5512,16 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4.07</v>
+        <v>4.04</v>
       </c>
       <c r="C203" t="n">
-        <v>16.63</v>
+        <v>16.52</v>
       </c>
       <c r="D203" t="n">
-        <v>91124.52</v>
+        <v>91866.49000000001</v>
       </c>
       <c r="E203" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="F203" t="n">
         <v>11.03</v>
@@ -5537,16 +5537,16 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="C204" t="n">
-        <v>23.92</v>
+        <v>23.89</v>
       </c>
       <c r="D204" t="n">
-        <v>36501.18</v>
+        <v>36568.64</v>
       </c>
       <c r="E204" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="F204" t="n">
         <v>0.24</v>
@@ -5565,10 +5565,10 @@
         <v>0.66</v>
       </c>
       <c r="C205" t="n">
-        <v>14.04</v>
+        <v>14.01</v>
       </c>
       <c r="D205" t="n">
-        <v>12146.66</v>
+        <v>12183.42</v>
       </c>
       <c r="E205" t="n">
         <v>0.96</v>
@@ -5587,13 +5587,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
       <c r="C206" t="n">
-        <v>17.99</v>
+        <v>17.95</v>
       </c>
       <c r="D206" t="n">
-        <v>26199</v>
+        <v>26272.8</v>
       </c>
       <c r="E206" t="n">
         <v>1.86</v>
@@ -5618,7 +5618,7 @@
         <v>-8</v>
       </c>
       <c r="D207" t="n">
-        <v>46276.8</v>
+        <v>46272</v>
       </c>
       <c r="E207" t="n">
         <v>2.13</v>
@@ -5640,10 +5640,10 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>15.3</v>
+        <v>15.24</v>
       </c>
       <c r="D208" t="n">
-        <v>7763.1</v>
+        <v>7794.42</v>
       </c>
       <c r="E208" t="n">
         <v>2.58</v>
@@ -5652,7 +5652,7 @@
         <v>39.74</v>
       </c>
       <c r="G208" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="209">
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="F209" t="n">
         <v>5.48</v>
@@ -5699,10 +5699,10 @@
         <v>-4.62</v>
       </c>
       <c r="D210" t="n">
-        <v>1858782.71</v>
+        <v>1856540</v>
       </c>
       <c r="E210" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="F210" t="n">
         <v>5.2</v>
@@ -5718,16 +5718,16 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>2.47</v>
+        <v>2.46</v>
       </c>
       <c r="C211" t="n">
-        <v>15.89</v>
+        <v>15.84</v>
       </c>
       <c r="D211" t="n">
-        <v>20109.55</v>
+        <v>20180.02</v>
       </c>
       <c r="E211" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="F211" t="n">
         <v>7.91</v>
@@ -5743,16 +5743,16 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="C212" t="n">
-        <v>26.21</v>
+        <v>26.24</v>
       </c>
       <c r="D212" t="n">
-        <v>35839.64</v>
+        <v>35779.13</v>
       </c>
       <c r="E212" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="F212" t="n">
         <v>17.22</v>
@@ -5771,13 +5771,13 @@
         <v>2.87</v>
       </c>
       <c r="C213" t="n">
-        <v>-11.92</v>
+        <v>-11.95</v>
       </c>
       <c r="D213" t="n">
-        <v>23669.56</v>
+        <v>23621.37</v>
       </c>
       <c r="E213" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="F213" t="n">
         <v>19.92</v>
@@ -5796,10 +5796,10 @@
         <v>2.94</v>
       </c>
       <c r="C214" t="n">
-        <v>58.54</v>
+        <v>58.55</v>
       </c>
       <c r="D214" t="n">
-        <v>125367.33</v>
+        <v>125311.8</v>
       </c>
       <c r="E214" t="n">
         <v>0.9</v>
@@ -5821,10 +5821,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="C215" t="n">
-        <v>4.7</v>
+        <v>4.71</v>
       </c>
       <c r="D215" t="n">
-        <v>48281.75</v>
+        <v>48196.32</v>
       </c>
       <c r="E215" t="n">
         <v>1.92</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="C216" t="n">
-        <v>17.49</v>
+        <v>17.48</v>
       </c>
       <c r="D216" t="n">
-        <v>30881.07</v>
+        <v>30888.23</v>
       </c>
       <c r="E216" t="n">
         <v>1.8</v>
@@ -5868,13 +5868,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>5.49</v>
+        <v>5.51</v>
       </c>
       <c r="C217" t="n">
-        <v>33.83</v>
+        <v>33.9</v>
       </c>
       <c r="D217" t="n">
-        <v>7014.03</v>
+        <v>6990.54</v>
       </c>
       <c r="E217" t="n">
         <v>1.75</v>
@@ -5894,13 +5894,13 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>13.05</v>
+        <v>13.02</v>
       </c>
       <c r="D218" t="n">
-        <v>17922.96</v>
+        <v>17973.65</v>
       </c>
       <c r="E218" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="F218" t="n">
         <v>29.88</v>
@@ -5916,13 +5916,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C219" t="n">
-        <v>33.05</v>
+        <v>33.1</v>
       </c>
       <c r="D219" t="n">
-        <v>82171.87</v>
+        <v>81989.86</v>
       </c>
       <c r="E219" t="n">
         <v>1.82</v>
@@ -5944,10 +5944,10 @@
         <v>2.11</v>
       </c>
       <c r="C220" t="n">
-        <v>11.41</v>
+        <v>11.43</v>
       </c>
       <c r="D220" t="n">
-        <v>369610.65</v>
+        <v>368960.39</v>
       </c>
       <c r="E220" t="n">
         <v>1.07</v>
@@ -5966,16 +5966,16 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="C221" t="n">
-        <v>15.27</v>
+        <v>15.35</v>
       </c>
       <c r="D221" t="n">
-        <v>43888.91</v>
+        <v>43637.04</v>
       </c>
       <c r="E221" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="F221" t="n">
         <v>-13.04</v>
@@ -5991,13 +5991,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="C222" t="n">
-        <v>13.35</v>
+        <v>13.34</v>
       </c>
       <c r="D222" t="n">
-        <v>27085.89</v>
+        <v>27106.78</v>
       </c>
       <c r="E222" t="n">
         <v>1.04</v>
@@ -6016,13 +6016,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="C223" t="n">
-        <v>17.49</v>
+        <v>17.45</v>
       </c>
       <c r="D223" t="n">
-        <v>10821.1</v>
+        <v>10851.61</v>
       </c>
       <c r="E223" t="n">
         <v>1.29</v>
@@ -6031,7 +6031,7 @@
         <v>16.24</v>
       </c>
       <c r="G223" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="224">
@@ -6044,13 +6044,13 @@
         <v>0.31</v>
       </c>
       <c r="C224" t="n">
-        <v>14.12</v>
+        <v>14.15</v>
       </c>
       <c r="D224" t="n">
-        <v>51602.7</v>
+        <v>51472.04</v>
       </c>
       <c r="E224" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F224" t="n">
         <v>23.44</v>
@@ -6072,7 +6072,7 @@
         <v>1.01</v>
       </c>
       <c r="D225" t="n">
-        <v>17723.31</v>
+        <v>17751.11</v>
       </c>
       <c r="E225" t="n">
         <v>1.03</v>
@@ -6091,16 +6091,16 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>2.23</v>
+        <v>2.22</v>
       </c>
       <c r="C226" t="n">
-        <v>8.789999999999999</v>
+        <v>8.77</v>
       </c>
       <c r="D226" t="n">
-        <v>128145.13</v>
+        <v>128448.38</v>
       </c>
       <c r="E226" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="F226" t="n">
         <v>10.91</v>
@@ -6141,13 +6141,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="C228" t="n">
-        <v>21.06</v>
+        <v>21.08</v>
       </c>
       <c r="D228" t="n">
-        <v>28141.99</v>
+        <v>28107.38</v>
       </c>
       <c r="E228" t="n">
         <v>1.21</v>
@@ -6166,16 +6166,16 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="C229" t="n">
-        <v>14.68</v>
+        <v>14.66</v>
       </c>
       <c r="D229" t="n">
-        <v>15854.12</v>
+        <v>15884.18</v>
       </c>
       <c r="E229" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="F229" t="n">
         <v>1.24</v>
@@ -6194,13 +6194,13 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>12.47</v>
+        <v>12.44</v>
       </c>
       <c r="D230" t="n">
-        <v>9690.73</v>
+        <v>9715.77</v>
       </c>
       <c r="E230" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="F230" t="n">
         <v>7.98</v>
@@ -6216,13 +6216,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="C231" t="n">
-        <v>22.84</v>
+        <v>22.76</v>
       </c>
       <c r="D231" t="n">
-        <v>13907.73</v>
+        <v>13968.37</v>
       </c>
       <c r="E231" t="n">
         <v>1.08</v>
@@ -6244,13 +6244,13 @@
         <v>1.93</v>
       </c>
       <c r="C232" t="n">
-        <v>10.37</v>
+        <v>10.41</v>
       </c>
       <c r="D232" t="n">
-        <v>40218.18</v>
+        <v>40060.35</v>
       </c>
       <c r="E232" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="F232" t="n">
         <v>-0.16</v>
@@ -6269,13 +6269,13 @@
         <v>1.26</v>
       </c>
       <c r="C233" t="n">
-        <v>8.44</v>
+        <v>8.43</v>
       </c>
       <c r="D233" t="n">
-        <v>19427.32</v>
+        <v>19457.34</v>
       </c>
       <c r="E233" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="F233" t="n">
         <v>17.07</v>
@@ -6294,10 +6294,10 @@
         <v>0.95</v>
       </c>
       <c r="C234" t="n">
-        <v>-28.47</v>
+        <v>-28.55</v>
       </c>
       <c r="D234" t="n">
-        <v>45348.85</v>
+        <v>45257.18</v>
       </c>
       <c r="E234" t="n">
         <v>3.59</v>
@@ -6319,13 +6319,13 @@
         <v>0.18</v>
       </c>
       <c r="C235" t="n">
-        <v>12.58</v>
+        <v>12.61</v>
       </c>
       <c r="D235" t="n">
-        <v>24224.41</v>
+        <v>24152.29</v>
       </c>
       <c r="E235" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="F235" t="n">
         <v>27.85</v>
@@ -6341,13 +6341,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3.54</v>
+        <v>3.55</v>
       </c>
       <c r="C236" t="n">
-        <v>21.43</v>
+        <v>21.46</v>
       </c>
       <c r="D236" t="n">
-        <v>170461.05</v>
+        <v>170150.59</v>
       </c>
       <c r="E236" t="n">
         <v>2.37</v>
@@ -6369,10 +6369,10 @@
         <v>1.26</v>
       </c>
       <c r="C237" t="n">
-        <v>18.06</v>
+        <v>18.01</v>
       </c>
       <c r="D237" t="n">
-        <v>75515.31</v>
+        <v>75738.91</v>
       </c>
       <c r="E237" t="n">
         <v>1.33</v>
@@ -6394,10 +6394,10 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="D238" t="n">
-        <v>47339.11</v>
+        <v>47432.78</v>
       </c>
       <c r="E238" t="n">
         <v>2.35</v>
@@ -6419,10 +6419,10 @@
         <v>1.11</v>
       </c>
       <c r="C239" t="n">
-        <v>6.29</v>
+        <v>6.28</v>
       </c>
       <c r="D239" t="n">
-        <v>17222.59</v>
+        <v>17255.1</v>
       </c>
       <c r="E239" t="n">
         <v>1.24</v>
@@ -6441,16 +6441,16 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>3.99</v>
+        <v>3.97</v>
       </c>
       <c r="C240" t="n">
-        <v>35.46</v>
+        <v>35.36</v>
       </c>
       <c r="D240" t="n">
-        <v>20294.22</v>
+        <v>20382.18</v>
       </c>
       <c r="E240" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="F240" t="n">
         <v>22.26</v>
@@ -6469,13 +6469,13 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>6.53</v>
+        <v>6.52</v>
       </c>
       <c r="D241" t="n">
-        <v>21717.89</v>
+        <v>21778.72</v>
       </c>
       <c r="E241" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="F241" t="n">
         <v>15.38</v>
@@ -6494,10 +6494,10 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>-32.94</v>
+        <v>-32.95</v>
       </c>
       <c r="D242" t="n">
-        <v>12848.03</v>
+        <v>12843.58</v>
       </c>
       <c r="E242" t="n">
         <v>1.36</v>
@@ -6522,7 +6522,7 @@
         <v>9.33</v>
       </c>
       <c r="D243" t="n">
-        <v>183072.4</v>
+        <v>183114.69</v>
       </c>
       <c r="E243" t="n">
         <v>2.99</v>
@@ -6544,13 +6544,13 @@
         <v>0.48</v>
       </c>
       <c r="C244" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="D244" t="n">
-        <v>185732.65</v>
+        <v>184561.88</v>
       </c>
       <c r="E244" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="F244" t="n">
         <v>20.72</v>
@@ -6566,16 +6566,16 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="C245" t="n">
-        <v>27.21</v>
+        <v>27.11</v>
       </c>
       <c r="D245" t="n">
-        <v>20124.61</v>
+        <v>20219.37</v>
       </c>
       <c r="E245" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="F245" t="n">
         <v>8.369999999999999</v>
@@ -6591,13 +6591,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>5.27</v>
+        <v>5.26</v>
       </c>
       <c r="C246" t="n">
-        <v>28.22</v>
+        <v>28.2</v>
       </c>
       <c r="D246" t="n">
-        <v>12188.46</v>
+        <v>12200.57</v>
       </c>
       <c r="E246" t="n">
         <v>1.9</v>
@@ -6616,16 +6616,16 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="C247" t="n">
-        <v>14.36</v>
+        <v>14.31</v>
       </c>
       <c r="D247" t="n">
-        <v>11844.29</v>
+        <v>11896.47</v>
       </c>
       <c r="E247" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F247" t="n">
         <v>15.46</v>
@@ -6644,10 +6644,10 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>22.52</v>
+        <v>22.57</v>
       </c>
       <c r="D248" t="n">
-        <v>40646.94</v>
+        <v>40519.74</v>
       </c>
       <c r="E248" t="n">
         <v>1.39</v>
@@ -6669,13 +6669,13 @@
         <v>0.09</v>
       </c>
       <c r="C249" t="n">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="D249" t="n">
-        <v>34941.4</v>
+        <v>34799.61</v>
       </c>
       <c r="E249" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F249" t="n">
         <v>28.14</v>
@@ -6691,13 +6691,13 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>3.62</v>
+        <v>3.63</v>
       </c>
       <c r="C250" t="n">
-        <v>39.66</v>
+        <v>39.71</v>
       </c>
       <c r="D250" t="n">
-        <v>20000.4</v>
+        <v>19959.68</v>
       </c>
       <c r="E250" t="n">
         <v>1.26</v>
@@ -6719,10 +6719,10 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>-3.88</v>
+        <v>-3.9</v>
       </c>
       <c r="D251" t="n">
-        <v>137363.53</v>
+        <v>136769.91</v>
       </c>
       <c r="E251" t="n">
         <v>1.12</v>
@@ -6747,7 +6747,7 @@
         <v>6.28</v>
       </c>
       <c r="D252" t="n">
-        <v>36707.24</v>
+        <v>36698.52</v>
       </c>
       <c r="E252" t="n">
         <v>1.2</v>
@@ -6766,13 +6766,13 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="C253" t="n">
-        <v>8.470000000000001</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="D253" t="n">
-        <v>76689.83</v>
+        <v>76951.59</v>
       </c>
       <c r="E253" t="n">
         <v>1</v>
@@ -6791,13 +6791,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>7.97</v>
+        <v>7.93</v>
       </c>
       <c r="C254" t="n">
-        <v>49.89</v>
+        <v>49.78</v>
       </c>
       <c r="D254" t="n">
-        <v>7174.84</v>
+        <v>7204.29</v>
       </c>
       <c r="E254" t="n">
         <v>2.41</v>
@@ -6819,13 +6819,13 @@
         <v>0.83</v>
       </c>
       <c r="C255" t="n">
-        <v>12.66</v>
+        <v>12.6</v>
       </c>
       <c r="D255" t="n">
-        <v>18237.06</v>
+        <v>18332.17</v>
       </c>
       <c r="E255" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="F255" t="n">
         <v>1</v>
@@ -6844,10 +6844,10 @@
         <v>0.75</v>
       </c>
       <c r="C256" t="n">
-        <v>6.41</v>
+        <v>6.4</v>
       </c>
       <c r="D256" t="n">
-        <v>22236.68</v>
+        <v>22252.17</v>
       </c>
       <c r="E256" t="n">
         <v>1.6</v>
@@ -6866,13 +6866,13 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="C257" t="n">
-        <v>8.66</v>
+        <v>8.67</v>
       </c>
       <c r="D257" t="n">
-        <v>18367.43</v>
+        <v>18351.02</v>
       </c>
       <c r="E257" t="n">
         <v>1.98</v>
@@ -6894,10 +6894,10 @@
         <v>2.6</v>
       </c>
       <c r="C258" t="n">
-        <v>20.01</v>
+        <v>19.96</v>
       </c>
       <c r="D258" t="n">
-        <v>37655.19</v>
+        <v>37760.65</v>
       </c>
       <c r="E258" t="n">
         <v>2.46</v>
@@ -6916,16 +6916,16 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="C259" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="D259" t="n">
-        <v>12741.22</v>
+        <v>12824.32</v>
       </c>
       <c r="E259" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="F259" t="n">
         <v>17.1</v>
@@ -6947,7 +6947,7 @@
         <v>4.42</v>
       </c>
       <c r="D260" t="n">
-        <v>377251.63</v>
+        <v>377364.98</v>
       </c>
       <c r="E260" t="n">
         <v>0.7</v>
@@ -6969,13 +6969,13 @@
         <v>2.38</v>
       </c>
       <c r="C261" t="n">
-        <v>4.01</v>
+        <v>4</v>
       </c>
       <c r="D261" t="n">
-        <v>11783.79</v>
+        <v>11807.7</v>
       </c>
       <c r="E261" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="F261" t="n">
         <v>48.14</v>
@@ -6991,13 +6991,13 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="C262" t="n">
-        <v>-131.29</v>
+        <v>-130.53</v>
       </c>
       <c r="D262" t="n">
-        <v>502185.54</v>
+        <v>503451.25</v>
       </c>
       <c r="E262" t="n">
         <v>0.82</v>
@@ -7016,16 +7016,16 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>4.39</v>
+        <v>4.37</v>
       </c>
       <c r="C263" t="n">
-        <v>27.38</v>
+        <v>27.31</v>
       </c>
       <c r="D263" t="n">
-        <v>18230.31</v>
+        <v>18293.58</v>
       </c>
       <c r="E263" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="F263" t="n">
         <v>10.57</v>
@@ -7047,7 +7047,7 @@
         <v>22.92</v>
       </c>
       <c r="D264" t="n">
-        <v>43872.47</v>
+        <v>43871.48</v>
       </c>
       <c r="E264" t="n">
         <v>1.04</v>
@@ -7066,16 +7066,16 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>6.61</v>
+        <v>6.56</v>
       </c>
       <c r="C265" t="n">
-        <v>62.68</v>
+        <v>62.52</v>
       </c>
       <c r="D265" t="n">
-        <v>12924.49</v>
+        <v>13008.87</v>
       </c>
       <c r="E265" t="n">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="F265" t="n">
         <v>43.58</v>
@@ -7094,10 +7094,10 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>-1.6</v>
+        <v>-1.61</v>
       </c>
       <c r="D266" t="n">
-        <v>28237.19</v>
+        <v>28201.39</v>
       </c>
       <c r="E266" t="n">
         <v>1.19</v>
@@ -7116,16 +7116,16 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>4.47</v>
+        <v>4.45</v>
       </c>
       <c r="C267" t="n">
-        <v>31.03</v>
+        <v>30.94</v>
       </c>
       <c r="D267" t="n">
-        <v>43885.63</v>
+        <v>44063.25</v>
       </c>
       <c r="E267" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="F267" t="n">
         <v>20.34</v>
@@ -7141,16 +7141,16 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>5.32</v>
+        <v>5.29</v>
       </c>
       <c r="C268" t="n">
-        <v>36.57</v>
+        <v>36.45</v>
       </c>
       <c r="D268" t="n">
-        <v>12352.97</v>
+        <v>12419.15</v>
       </c>
       <c r="E268" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="F268" t="n">
         <v>23.47</v>
@@ -7166,16 +7166,16 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="C269" t="n">
         <v>3.08</v>
       </c>
       <c r="D269" t="n">
-        <v>88730.23</v>
+        <v>88860.14999999999</v>
       </c>
       <c r="E269" t="n">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="F269" t="n">
         <v>21.23</v>
@@ -7191,16 +7191,16 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="C270" t="n">
-        <v>14.62</v>
+        <v>14.58</v>
       </c>
       <c r="D270" t="n">
-        <v>40232.75</v>
+        <v>40375.97</v>
       </c>
       <c r="E270" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="F270" t="n">
         <v>0.88</v>
@@ -7216,13 +7216,13 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>6.79</v>
+        <v>6.78</v>
       </c>
       <c r="C271" t="n">
-        <v>46.5</v>
+        <v>46.46</v>
       </c>
       <c r="D271" t="n">
-        <v>36861.59</v>
+        <v>36920.28</v>
       </c>
       <c r="E271" t="n">
         <v>0.98</v>
@@ -7244,13 +7244,13 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>61.5</v>
+        <v>61.39</v>
       </c>
       <c r="D272" t="n">
-        <v>11771.35</v>
+        <v>11822.73</v>
       </c>
       <c r="E272" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F272" t="n">
         <v>10.74</v>
@@ -7266,16 +7266,16 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="C273" t="n">
-        <v>10.11</v>
+        <v>10.1</v>
       </c>
       <c r="D273" t="n">
-        <v>257580.92</v>
+        <v>257775.69</v>
       </c>
       <c r="E273" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F273" t="n">
         <v>10.67</v>
@@ -7291,22 +7291,22 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="C274" t="n">
-        <v>37.46</v>
+        <v>37.37</v>
       </c>
       <c r="D274" t="n">
-        <v>32388.26</v>
+        <v>32513.56</v>
       </c>
       <c r="E274" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F274" t="n">
         <v>4.31</v>
       </c>
       <c r="G274" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="275">
@@ -7338,13 +7338,13 @@
         <v>0.34</v>
       </c>
       <c r="C276" t="n">
-        <v>33</v>
+        <v>32.97</v>
       </c>
       <c r="D276" t="n">
-        <v>18036.76</v>
+        <v>18061.51</v>
       </c>
       <c r="E276" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F276" t="n">
         <v>12.92</v>
@@ -7363,10 +7363,10 @@
         <v>1.28</v>
       </c>
       <c r="C277" t="n">
-        <v>24.69</v>
+        <v>24.71</v>
       </c>
       <c r="D277" t="n">
-        <v>15568.68</v>
+        <v>15553.61</v>
       </c>
       <c r="E277" t="n">
         <v>0.7</v>
@@ -7388,10 +7388,10 @@
         <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.32</v>
       </c>
       <c r="D278" t="n">
-        <v>43097.44</v>
+        <v>42990.69</v>
       </c>
       <c r="E278" t="n">
         <v>1.71</v>
@@ -7413,10 +7413,10 @@
         <v>0.99</v>
       </c>
       <c r="C279" t="n">
-        <v>22.98</v>
+        <v>23</v>
       </c>
       <c r="D279" t="n">
-        <v>19658.46</v>
+        <v>19632.44</v>
       </c>
       <c r="E279" t="n">
         <v>1.01</v>
@@ -7438,13 +7438,13 @@
         <v>2.18</v>
       </c>
       <c r="C280" t="n">
-        <v>25.63</v>
+        <v>25.61</v>
       </c>
       <c r="D280" t="n">
-        <v>39727.63</v>
+        <v>39773.11</v>
       </c>
       <c r="E280" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F280" t="n">
         <v>18</v>
@@ -7463,10 +7463,10 @@
         <v>1.2</v>
       </c>
       <c r="C281" t="n">
-        <v>6</v>
+        <v>6.01</v>
       </c>
       <c r="D281" t="n">
-        <v>206625.36</v>
+        <v>206546.58</v>
       </c>
       <c r="E281" t="n">
         <v>1.12</v>
@@ -7491,7 +7491,7 @@
         <v>22.28</v>
       </c>
       <c r="D282" t="n">
-        <v>12817.04</v>
+        <v>12814.36</v>
       </c>
       <c r="E282" t="n">
         <v>1.14</v>
@@ -7513,10 +7513,10 @@
         <v>0.5</v>
       </c>
       <c r="C283" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="D283" t="n">
-        <v>705380.6899999999</v>
+        <v>703286.6800000001</v>
       </c>
       <c r="E283" t="n">
         <v>1.62</v>
@@ -7535,13 +7535,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="C284" t="n">
-        <v>14.39</v>
+        <v>14.4</v>
       </c>
       <c r="D284" t="n">
-        <v>102424.8</v>
+        <v>102360</v>
       </c>
       <c r="E284" t="n">
         <v>1.15</v>
@@ -7560,16 +7560,16 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="C285" t="n">
-        <v>41.98</v>
+        <v>41.99</v>
       </c>
       <c r="D285" t="n">
-        <v>12045.69</v>
+        <v>12036.9</v>
       </c>
       <c r="E285" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="F285" t="n">
         <v>3.2</v>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="C286" t="n">
-        <v>21.38</v>
+        <v>21.35</v>
       </c>
       <c r="D286" t="n">
-        <v>133343.81</v>
+        <v>133578.26</v>
       </c>
       <c r="E286" t="n">
         <v>1.27</v>
@@ -7616,10 +7616,10 @@
         <v>-0.1</v>
       </c>
       <c r="D287" t="n">
-        <v>121007.01</v>
+        <v>121510.88</v>
       </c>
       <c r="E287" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="F287" t="n">
         <v>26.54</v>
@@ -7641,10 +7641,10 @@
         <v>-0.14</v>
       </c>
       <c r="D288" t="n">
-        <v>59831.96</v>
+        <v>59871.43</v>
       </c>
       <c r="E288" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="F288" t="n">
         <v>21.25</v>
@@ -7660,16 +7660,16 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2.23</v>
+        <v>2.21</v>
       </c>
       <c r="C289" t="n">
-        <v>-13.41</v>
+        <v>-13.3</v>
       </c>
       <c r="D289" t="n">
-        <v>19227.46</v>
+        <v>19367.79</v>
       </c>
       <c r="E289" t="n">
-        <v>2.44</v>
+        <v>2.43</v>
       </c>
       <c r="F289" t="n">
         <v>18.06</v>
@@ -7688,10 +7688,10 @@
         <v>0.74</v>
       </c>
       <c r="C290" t="n">
-        <v>19.37</v>
+        <v>19.38</v>
       </c>
       <c r="D290" t="n">
-        <v>40973.32</v>
+        <v>40965.68</v>
       </c>
       <c r="E290" t="n">
         <v>1.66</v>
@@ -7710,13 +7710,13 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C291" t="n">
-        <v>18.44</v>
+        <v>18.41</v>
       </c>
       <c r="D291" t="n">
-        <v>14651.78</v>
+        <v>14687.47</v>
       </c>
       <c r="E291" t="n">
         <v>1.46</v>
@@ -7735,13 +7735,13 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>10.54</v>
+        <v>10.5</v>
       </c>
       <c r="C292" t="n">
-        <v>23.09</v>
+        <v>23.04</v>
       </c>
       <c r="D292" t="n">
-        <v>30805.92</v>
+        <v>30909.6</v>
       </c>
       <c r="E292" t="n">
         <v>0.98</v>
@@ -7763,13 +7763,13 @@
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>9.140000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="D293" t="n">
-        <v>20800.78</v>
+        <v>20705.03</v>
       </c>
       <c r="E293" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="F293" t="n">
         <v>13.4</v>
@@ -7791,10 +7791,10 @@
         <v>1.5</v>
       </c>
       <c r="D294" t="n">
-        <v>428332.41</v>
+        <v>427659.92</v>
       </c>
       <c r="E294" t="n">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F294" t="n">
         <v>11.63</v>
@@ -7810,13 +7810,13 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>3.77</v>
+        <v>3.75</v>
       </c>
       <c r="C295" t="n">
-        <v>23.55</v>
+        <v>23.45</v>
       </c>
       <c r="D295" t="n">
-        <v>14302.82</v>
+        <v>14379.61</v>
       </c>
       <c r="E295" t="n">
         <v>1.31</v>
@@ -7841,7 +7841,7 @@
         <v>12.24</v>
       </c>
       <c r="D296" t="n">
-        <v>76702.67</v>
+        <v>76724.41</v>
       </c>
       <c r="E296" t="n">
         <v>0.93</v>
@@ -7860,16 +7860,16 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="C297" t="n">
-        <v>15.52</v>
+        <v>15.47</v>
       </c>
       <c r="D297" t="n">
-        <v>16291.44</v>
+        <v>16359.03</v>
       </c>
       <c r="E297" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="F297" t="n">
         <v>34.88</v>
@@ -7885,16 +7885,16 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>2.13</v>
+        <v>2.14</v>
       </c>
       <c r="C298" t="n">
-        <v>17.83</v>
+        <v>17.89</v>
       </c>
       <c r="D298" t="n">
-        <v>212464.59</v>
+        <v>211689.41</v>
       </c>
       <c r="E298" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="F298" t="n">
         <v>13.7</v>
@@ -7916,7 +7916,7 @@
         <v>12.02</v>
       </c>
       <c r="D299" t="n">
-        <v>46595.91</v>
+        <v>46604.09</v>
       </c>
       <c r="E299" t="n">
         <v>1.85</v>
@@ -7938,13 +7938,13 @@
         <v>0.43</v>
       </c>
       <c r="C300" t="n">
-        <v>3.68</v>
+        <v>3.7</v>
       </c>
       <c r="D300" t="n">
-        <v>68502.52</v>
+        <v>68183.60000000001</v>
       </c>
       <c r="E300" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="F300" t="n">
         <v>7.18</v>
@@ -7960,16 +7960,16 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C301" t="n">
-        <v>5.94</v>
+        <v>5.92</v>
       </c>
       <c r="D301" t="n">
-        <v>74010.00999999999</v>
+        <v>74227.11</v>
       </c>
       <c r="E301" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="F301" t="n">
         <v>22.67</v>
@@ -7985,16 +7985,16 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="C302" t="n">
-        <v>15.44</v>
+        <v>15.41</v>
       </c>
       <c r="D302" t="n">
-        <v>99297.74000000001</v>
+        <v>99576.73</v>
       </c>
       <c r="E302" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="F302" t="n">
         <v>14.07</v>
@@ -8016,7 +8016,7 @@
         <v>13.37</v>
       </c>
       <c r="D303" t="n">
-        <v>113098.81</v>
+        <v>113105.46</v>
       </c>
       <c r="E303" t="n">
         <v>0.9</v>
@@ -8041,7 +8041,7 @@
         <v>-2.44</v>
       </c>
       <c r="D304" t="n">
-        <v>49325.35</v>
+        <v>49329</v>
       </c>
       <c r="E304" t="n">
         <v>1.63</v>
@@ -8063,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>-2.39</v>
+        <v>-2.4</v>
       </c>
       <c r="D305" t="n">
-        <v>1208298.03</v>
+        <v>1202978.39</v>
       </c>
       <c r="E305" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="F305" t="n">
         <v>21.33</v>
@@ -8088,10 +8088,10 @@
         <v>0.02</v>
       </c>
       <c r="C306" t="n">
-        <v>61.34</v>
+        <v>61.31</v>
       </c>
       <c r="D306" t="n">
-        <v>17699.6</v>
+        <v>17718.55</v>
       </c>
       <c r="E306" t="n">
         <v>1.42</v>
@@ -8113,13 +8113,13 @@
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>25.22</v>
+        <v>25.04</v>
       </c>
       <c r="D307" t="n">
-        <v>7725.38</v>
+        <v>7796.96</v>
       </c>
       <c r="E307" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="F307" t="n">
         <v>27.78</v>
@@ -8138,13 +8138,13 @@
         <v>2.41</v>
       </c>
       <c r="C308" t="n">
-        <v>20.52</v>
+        <v>20.53</v>
       </c>
       <c r="D308" t="n">
-        <v>17343.39</v>
+        <v>17332.67</v>
       </c>
       <c r="E308" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="F308" t="n">
         <v>11.03</v>
@@ -8160,16 +8160,16 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="C309" t="n">
-        <v>-6.31</v>
+        <v>-6.36</v>
       </c>
       <c r="D309" t="n">
-        <v>8538.68</v>
+        <v>8463.83</v>
       </c>
       <c r="E309" t="n">
-        <v>4.24</v>
+        <v>4.23</v>
       </c>
       <c r="F309" t="n">
         <v>14.27</v>
@@ -8185,13 +8185,13 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="C310" t="n">
-        <v>12.25</v>
+        <v>12.2</v>
       </c>
       <c r="D310" t="n">
-        <v>32703.76</v>
+        <v>32840.82</v>
       </c>
       <c r="E310" t="n">
         <v>1.32</v>
@@ -8210,16 +8210,16 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="C311" t="n">
-        <v>11.05</v>
+        <v>11.04</v>
       </c>
       <c r="D311" t="n">
-        <v>97214.28</v>
+        <v>97371.72</v>
       </c>
       <c r="E311" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="F311" t="n">
         <v>4.41</v>
@@ -8235,13 +8235,13 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>6.46</v>
+        <v>6.45</v>
       </c>
       <c r="C312" t="n">
-        <v>16.7</v>
+        <v>16.68</v>
       </c>
       <c r="D312" t="n">
-        <v>51251.9</v>
+        <v>51334.79</v>
       </c>
       <c r="E312" t="n">
         <v>2.78</v>
@@ -8266,10 +8266,10 @@
         <v>-4.74</v>
       </c>
       <c r="D313" t="n">
-        <v>58189.44</v>
+        <v>58142.44</v>
       </c>
       <c r="E313" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="F313" t="n">
         <v>18.15</v>
@@ -8285,13 +8285,13 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>9.32</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C314" t="n">
-        <v>24.15</v>
+        <v>24.12</v>
       </c>
       <c r="D314" t="n">
-        <v>70834.28999999999</v>
+        <v>70940.42</v>
       </c>
       <c r="E314" t="n">
         <v>1.18</v>
@@ -8313,13 +8313,13 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>-28.21</v>
+        <v>-28.31</v>
       </c>
       <c r="D315" t="n">
-        <v>22608.98</v>
+        <v>22542.86</v>
       </c>
       <c r="E315" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="F315" t="n">
         <v>9.050000000000001</v>
@@ -8338,10 +8338,10 @@
         <v>1.95</v>
       </c>
       <c r="C316" t="n">
-        <v>23.26</v>
+        <v>23.25</v>
       </c>
       <c r="D316" t="n">
-        <v>10138.24</v>
+        <v>10145.02</v>
       </c>
       <c r="E316" t="n">
         <v>1.3</v>
@@ -8360,13 +8360,13 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="C317" t="n">
-        <v>21.48</v>
+        <v>21.43</v>
       </c>
       <c r="D317" t="n">
-        <v>62350.24</v>
+        <v>62548.96</v>
       </c>
       <c r="E317" t="n">
         <v>1.99</v>
@@ -8391,7 +8391,7 @@
         <v>-2.12</v>
       </c>
       <c r="D318" t="n">
-        <v>35388.19</v>
+        <v>35439.07</v>
       </c>
       <c r="E318" t="n">
         <v>3.77</v>
@@ -8410,16 +8410,16 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="C319" t="n">
-        <v>5.57</v>
+        <v>5.58</v>
       </c>
       <c r="D319" t="n">
-        <v>318412.66</v>
+        <v>317893.18</v>
       </c>
       <c r="E319" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="F319" t="n">
         <v>15.54</v>
@@ -8438,13 +8438,13 @@
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>-35.1</v>
+        <v>-34.88</v>
       </c>
       <c r="D320" t="n">
-        <v>33495</v>
+        <v>33652.85</v>
       </c>
       <c r="E320" t="n">
-        <v>2.73</v>
+        <v>2.68</v>
       </c>
       <c r="F320" t="n">
         <v>31.78</v>
@@ -8463,10 +8463,10 @@
         <v>1.55</v>
       </c>
       <c r="C321" t="n">
-        <v>28.81</v>
+        <v>28.79</v>
       </c>
       <c r="D321" t="n">
-        <v>14195.02</v>
+        <v>14210.85</v>
       </c>
       <c r="E321" t="n">
         <v>1.35</v>
@@ -8485,13 +8485,13 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>3.87</v>
+        <v>3.86</v>
       </c>
       <c r="C322" t="n">
-        <v>33.46</v>
+        <v>33.45</v>
       </c>
       <c r="D322" t="n">
-        <v>139661.67</v>
+        <v>139743.03</v>
       </c>
       <c r="E322" t="n">
         <v>1.24</v>
@@ -8513,10 +8513,10 @@
         <v>0.8</v>
       </c>
       <c r="C323" t="n">
-        <v>7.94</v>
+        <v>7.95</v>
       </c>
       <c r="D323" t="n">
-        <v>46900.76</v>
+        <v>46860.42</v>
       </c>
       <c r="E323" t="n">
         <v>2.38</v>
@@ -8541,7 +8541,7 @@
         <v>-1.03</v>
       </c>
       <c r="D324" t="n">
-        <v>3122997.71</v>
+        <v>3125527.51</v>
       </c>
       <c r="E324" t="n">
         <v>1.16</v>
@@ -8563,13 +8563,13 @@
         <v>0.96</v>
       </c>
       <c r="C325" t="n">
-        <v>8.630000000000001</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="D325" t="n">
-        <v>55327.76</v>
+        <v>55424.08</v>
       </c>
       <c r="E325" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F325" t="n">
         <v>12.47</v>
@@ -8585,16 +8585,16 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>4.01</v>
+        <v>3.98</v>
       </c>
       <c r="C326" t="n">
-        <v>-286.03</v>
+        <v>-277.41</v>
       </c>
       <c r="D326" t="n">
-        <v>21975.7</v>
+        <v>22152.65</v>
       </c>
       <c r="E326" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="F326" t="n">
         <v>16.97</v>
@@ -8616,7 +8616,7 @@
         <v>23.6</v>
       </c>
       <c r="D327" t="n">
-        <v>9626.110000000001</v>
+        <v>9627.58</v>
       </c>
       <c r="E327" t="n">
         <v>1.98</v>
@@ -8638,13 +8638,13 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>7.2</v>
+        <v>7.26</v>
       </c>
       <c r="D328" t="n">
-        <v>26218.12</v>
+        <v>26002.49</v>
       </c>
       <c r="E328" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="F328" t="n">
         <v>15.88</v>
@@ -8666,10 +8666,10 @@
         <v>3.59</v>
       </c>
       <c r="D329" t="n">
-        <v>93798.74000000001</v>
+        <v>93944.88</v>
       </c>
       <c r="E329" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="F329" t="n">
         <v>22.57</v>
@@ -8688,10 +8688,10 @@
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>65.79000000000001</v>
+        <v>65.78</v>
       </c>
       <c r="D330" t="n">
-        <v>6917.5</v>
+        <v>6919.61</v>
       </c>
       <c r="E330" t="n">
         <v>2.25</v>
@@ -8716,10 +8716,10 @@
         <v>23.65</v>
       </c>
       <c r="D331" t="n">
-        <v>33016.8</v>
+        <v>33031.22</v>
       </c>
       <c r="E331" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F331" t="n">
         <v>12.51</v>
@@ -8738,10 +8738,10 @@
         <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>10.42</v>
+        <v>10.41</v>
       </c>
       <c r="D332" t="n">
-        <v>15018.02</v>
+        <v>15031.14</v>
       </c>
       <c r="E332" t="n">
         <v>1.15</v>
@@ -8760,16 +8760,16 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>3.31</v>
+        <v>3.3</v>
       </c>
       <c r="C333" t="n">
-        <v>38.19</v>
+        <v>38.11</v>
       </c>
       <c r="D333" t="n">
-        <v>114127.35</v>
+        <v>114501.74</v>
       </c>
       <c r="E333" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="F333" t="n">
         <v>17.47</v>
@@ -8785,16 +8785,16 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>6.74</v>
+        <v>6.71</v>
       </c>
       <c r="C334" t="n">
-        <v>8.77</v>
+        <v>8.74</v>
       </c>
       <c r="D334" t="n">
-        <v>25904.85</v>
+        <v>26002.47</v>
       </c>
       <c r="E334" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="F334" t="n">
         <v>-2.99</v>
@@ -8838,10 +8838,10 @@
         <v>4.2</v>
       </c>
       <c r="C336" t="n">
-        <v>52.02</v>
+        <v>52.01</v>
       </c>
       <c r="D336" t="n">
-        <v>10402.48</v>
+        <v>10406.6</v>
       </c>
       <c r="E336" t="n">
         <v>1.17</v>
@@ -8866,7 +8866,7 @@
         <v>0.91</v>
       </c>
       <c r="D337" t="n">
-        <v>160277.84</v>
+        <v>160094</v>
       </c>
       <c r="E337" t="n">
         <v>1.46</v>
@@ -8885,13 +8885,13 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="C338" t="n">
-        <v>15.87</v>
+        <v>15.86</v>
       </c>
       <c r="D338" t="n">
-        <v>68203.64999999999</v>
+        <v>68287.71000000001</v>
       </c>
       <c r="E338" t="n">
         <v>1.62</v>
@@ -8916,10 +8916,10 @@
         <v>-1.58</v>
       </c>
       <c r="D339" t="n">
-        <v>166628.95</v>
+        <v>166428.33</v>
       </c>
       <c r="E339" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="F339" t="n">
         <v>34.41</v>
@@ -8938,10 +8938,10 @@
         <v>2.76</v>
       </c>
       <c r="C340" t="n">
-        <v>39.55</v>
+        <v>39.57</v>
       </c>
       <c r="D340" t="n">
-        <v>12031.29</v>
+        <v>12022.11</v>
       </c>
       <c r="E340" t="n">
         <v>1.42</v>
@@ -8960,13 +8960,13 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="C341" t="n">
-        <v>21.4</v>
+        <v>21.35</v>
       </c>
       <c r="D341" t="n">
-        <v>57334.32</v>
+        <v>57510.35</v>
       </c>
       <c r="E341" t="n">
         <v>2.36</v>
@@ -8985,16 +8985,16 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="C342" t="n">
-        <v>-2.06</v>
+        <v>-2.07</v>
       </c>
       <c r="D342" t="n">
-        <v>19111.8</v>
+        <v>19048.2</v>
       </c>
       <c r="E342" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F342" t="n">
         <v>16.66</v>
@@ -9010,16 +9010,16 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>4.89</v>
+        <v>4.88</v>
       </c>
       <c r="C343" t="n">
-        <v>209.64</v>
+        <v>210.11</v>
       </c>
       <c r="D343" t="n">
-        <v>16303.42</v>
+        <v>16336.23</v>
       </c>
       <c r="E343" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F343" t="n">
         <v>30.38</v>
@@ -9035,16 +9035,16 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="C344" t="n">
-        <v>-0.64</v>
+        <v>-0.63</v>
       </c>
       <c r="D344" t="n">
-        <v>45703.93</v>
+        <v>45858.81</v>
       </c>
       <c r="E344" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="F344" t="n">
         <v>19.48</v>
@@ -9066,10 +9066,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="D345" t="n">
-        <v>1772646.41</v>
+        <v>1778799.82</v>
       </c>
       <c r="E345" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="F345" t="n">
         <v>32.19</v>
@@ -9088,13 +9088,13 @@
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>-9.970000000000001</v>
+        <v>-9.93</v>
       </c>
       <c r="D346" t="n">
-        <v>23691.3</v>
+        <v>23795.41</v>
       </c>
       <c r="E346" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="F346" t="n">
         <v>31.36</v>
@@ -9116,7 +9116,7 @@
         <v>13.24</v>
       </c>
       <c r="D347" t="n">
-        <v>15557.31</v>
+        <v>15563.03</v>
       </c>
       <c r="E347" t="n">
         <v>1.93</v>
@@ -9160,16 +9160,16 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="C349" t="n">
-        <v>11.16</v>
+        <v>11.11</v>
       </c>
       <c r="D349" t="n">
-        <v>60345.91</v>
+        <v>60597.58</v>
       </c>
       <c r="E349" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="F349" t="n">
         <v>12.57</v>
@@ -9185,16 +9185,16 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
       <c r="C350" t="n">
-        <v>34.71</v>
+        <v>34.6</v>
       </c>
       <c r="D350" t="n">
-        <v>34665.76</v>
+        <v>34837.44</v>
       </c>
       <c r="E350" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="F350" t="n">
         <v>19.35</v>
@@ -9216,7 +9216,7 @@
         <v>-0.75</v>
       </c>
       <c r="D351" t="n">
-        <v>47639.81</v>
+        <v>47500.6</v>
       </c>
       <c r="E351" t="n">
         <v>1.66</v>
@@ -9235,13 +9235,13 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>5.43</v>
+        <v>5.41</v>
       </c>
       <c r="C352" t="n">
-        <v>30.47</v>
+        <v>30.43</v>
       </c>
       <c r="D352" t="n">
-        <v>30811.41</v>
+        <v>30871.77</v>
       </c>
       <c r="E352" t="n">
         <v>1.24</v>
@@ -9260,16 +9260,16 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="C353" t="n">
-        <v>12.72</v>
+        <v>12.75</v>
       </c>
       <c r="D353" t="n">
-        <v>17195.04</v>
+        <v>17146.39</v>
       </c>
       <c r="E353" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="F353" t="n">
         <v>20.04</v>
@@ -9288,10 +9288,10 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="D354" t="n">
-        <v>34831.35</v>
+        <v>34900.46</v>
       </c>
       <c r="E354" t="n">
         <v>2.85</v>
@@ -9313,10 +9313,10 @@
         <v>1.16</v>
       </c>
       <c r="C355" t="n">
-        <v>21.16</v>
+        <v>21.2</v>
       </c>
       <c r="D355" t="n">
-        <v>317203.96</v>
+        <v>316444.32</v>
       </c>
       <c r="E355" t="n">
         <v>1.27</v>
@@ -9338,13 +9338,13 @@
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>9.119999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D356" t="n">
-        <v>64173.31</v>
+        <v>63963.18</v>
       </c>
       <c r="E356" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="F356" t="n">
         <v>5.07</v>
@@ -9363,10 +9363,10 @@
         <v>1.45</v>
       </c>
       <c r="C357" t="n">
-        <v>13.73</v>
+        <v>13.7</v>
       </c>
       <c r="D357" t="n">
-        <v>37168.88</v>
+        <v>37275.29</v>
       </c>
       <c r="E357" t="n">
         <v>0.95</v>
@@ -9388,13 +9388,13 @@
         <v>2.29</v>
       </c>
       <c r="C358" t="n">
-        <v>27.86</v>
+        <v>27.81</v>
       </c>
       <c r="D358" t="n">
-        <v>51598.81</v>
+        <v>51714.89</v>
       </c>
       <c r="E358" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F358" t="n">
         <v>-10.92</v>
@@ -9413,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>-2.79</v>
+        <v>-2.8</v>
       </c>
       <c r="D359" t="n">
-        <v>116776.33</v>
+        <v>116198.27</v>
       </c>
       <c r="E359" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="F359" t="n">
         <v>33.79</v>
@@ -9435,13 +9435,13 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>8.16</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C360" t="n">
-        <v>63.49</v>
+        <v>63.65</v>
       </c>
       <c r="D360" t="n">
-        <v>8443.5</v>
+        <v>8385</v>
       </c>
       <c r="E360" t="n">
         <v>2.97</v>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="C361" t="n">
-        <v>-3.14</v>
+        <v>-3.1</v>
       </c>
       <c r="D361" t="n">
-        <v>10874.08</v>
+        <v>10994.73</v>
       </c>
       <c r="E361" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="F361" t="n">
         <v>-23.74</v>
@@ -9485,13 +9485,13 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>2.66</v>
+        <v>2.65</v>
       </c>
       <c r="C362" t="n">
         <v>-1.63</v>
       </c>
       <c r="D362" t="n">
-        <v>44223.94</v>
+        <v>44352.31</v>
       </c>
       <c r="E362" t="n">
         <v>0.77</v>
@@ -9510,16 +9510,16 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="C363" t="n">
-        <v>-18.56</v>
+        <v>-18.5</v>
       </c>
       <c r="D363" t="n">
-        <v>55307.58</v>
+        <v>55475.03</v>
       </c>
       <c r="E363" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="F363" t="n">
         <v>15.29</v>
@@ -9538,13 +9538,13 @@
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>61.86</v>
+        <v>61.95</v>
       </c>
       <c r="D364" t="n">
-        <v>32425.74</v>
+        <v>32301.51</v>
       </c>
       <c r="E364" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="F364" t="n">
         <v>9.300000000000001</v>
@@ -9560,16 +9560,16 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>6.89</v>
+        <v>6.84</v>
       </c>
       <c r="C365" t="n">
-        <v>41.35</v>
+        <v>41.17</v>
       </c>
       <c r="D365" t="n">
-        <v>9410.440000000001</v>
+        <v>9478.77</v>
       </c>
       <c r="E365" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="F365" t="n">
         <v>25.39</v>
@@ -9588,10 +9588,10 @@
         <v>3.72</v>
       </c>
       <c r="C366" t="n">
-        <v>40.77</v>
+        <v>40.76</v>
       </c>
       <c r="D366" t="n">
-        <v>29012.38</v>
+        <v>29034.74</v>
       </c>
       <c r="E366" t="n">
         <v>1</v>
@@ -9610,16 +9610,16 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="C367" t="n">
-        <v>13.46</v>
+        <v>13.53</v>
       </c>
       <c r="D367" t="n">
-        <v>232444.47</v>
+        <v>230881.59</v>
       </c>
       <c r="E367" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="F367" t="n">
         <v>4.54</v>
@@ -9635,13 +9635,13 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>5.81</v>
+        <v>5.8</v>
       </c>
       <c r="C368" t="n">
-        <v>9.550000000000001</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="D368" t="n">
-        <v>154552.32</v>
+        <v>154776.96</v>
       </c>
       <c r="E368" t="n">
         <v>1.27</v>
@@ -9660,17 +9660,23 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="C369" t="n">
         <v>-3.11</v>
       </c>
       <c r="D369" t="n">
-        <v>19030.74</v>
-      </c>
-      <c r="E369" t="inlineStr"/>
-      <c r="F369" t="inlineStr"/>
-      <c r="G369" t="inlineStr"/>
+        <v>19041.7</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F369" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="G369" t="n">
+        <v>1.06</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -9682,13 +9688,13 @@
         <v>2.42</v>
       </c>
       <c r="C370" t="n">
-        <v>6.98</v>
+        <v>6.97</v>
       </c>
       <c r="D370" t="n">
-        <v>371263.07</v>
+        <v>371841.78</v>
       </c>
       <c r="E370" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="F370" t="n">
         <v>1.72</v>
@@ -9710,7 +9716,7 @@
         <v>5.58</v>
       </c>
       <c r="D371" t="n">
-        <v>107022.11</v>
+        <v>106946.02</v>
       </c>
       <c r="E371" t="n">
         <v>1.2</v>
@@ -9732,10 +9738,10 @@
         <v>1.05</v>
       </c>
       <c r="C372" t="n">
-        <v>15.68</v>
+        <v>15.64</v>
       </c>
       <c r="D372" t="n">
-        <v>66787.77</v>
+        <v>66962.44</v>
       </c>
       <c r="E372" t="n">
         <v>2.01</v>
@@ -9760,7 +9766,7 @@
         <v>2.86</v>
       </c>
       <c r="D373" t="n">
-        <v>22292.52</v>
+        <v>22227.84</v>
       </c>
       <c r="E373" t="n">
         <v>1.78</v>
@@ -9782,10 +9788,10 @@
         <v>2.79</v>
       </c>
       <c r="C374" t="n">
-        <v>13.35</v>
+        <v>13.34</v>
       </c>
       <c r="D374" t="n">
-        <v>15076.55</v>
+        <v>15086.41</v>
       </c>
       <c r="E374" t="n">
         <v>1.3</v>
@@ -9804,13 +9810,13 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="C375" t="n">
-        <v>18.96</v>
+        <v>18.87</v>
       </c>
       <c r="D375" t="n">
-        <v>121668.49</v>
+        <v>122407.67</v>
       </c>
       <c r="E375" t="n">
         <v>1.51</v>
@@ -9829,13 +9835,13 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>5.66</v>
+        <v>5.65</v>
       </c>
       <c r="C376" t="n">
-        <v>22.69</v>
+        <v>22.68</v>
       </c>
       <c r="D376" t="n">
-        <v>138108.89</v>
+        <v>138155.41</v>
       </c>
       <c r="E376" t="n">
         <v>1.04</v>
@@ -9854,13 +9860,13 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>4.59</v>
+        <v>4.58</v>
       </c>
       <c r="C377" t="n">
-        <v>27.28</v>
+        <v>27.23</v>
       </c>
       <c r="D377" t="n">
-        <v>58689.69</v>
+        <v>58816.78</v>
       </c>
       <c r="E377" t="n">
         <v>1.56</v>
@@ -9882,10 +9888,10 @@
         <v>1.18</v>
       </c>
       <c r="C378" t="n">
-        <v>12.85</v>
+        <v>12.87</v>
       </c>
       <c r="D378" t="n">
-        <v>12334.61</v>
+        <v>12311.47</v>
       </c>
       <c r="E378" t="n">
         <v>1.26</v>
@@ -9907,10 +9913,10 @@
         <v>5</v>
       </c>
       <c r="C379" t="n">
-        <v>53.94</v>
+        <v>53.92</v>
       </c>
       <c r="D379" t="n">
-        <v>7575.84</v>
+        <v>7582.63</v>
       </c>
       <c r="E379" t="n">
         <v>1.42</v>
@@ -9932,13 +9938,13 @@
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>5.36</v>
+        <v>5.38</v>
       </c>
       <c r="D380" t="n">
-        <v>13377.08</v>
+        <v>13320.36</v>
       </c>
       <c r="E380" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="F380" t="n">
         <v>38.53</v>
@@ -9960,7 +9966,7 @@
         <v>9.66</v>
       </c>
       <c r="D381" t="n">
-        <v>15105.61</v>
+        <v>15106.19</v>
       </c>
       <c r="E381" t="n">
         <v>1.73</v>
@@ -9979,16 +9985,16 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="C382" t="n">
-        <v>12.45</v>
+        <v>12.4</v>
       </c>
       <c r="D382" t="n">
-        <v>32760.87</v>
+        <v>32912.96</v>
       </c>
       <c r="E382" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="F382" t="n">
         <v>16.7</v>
@@ -10004,13 +10010,13 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>4.14</v>
+        <v>4.13</v>
       </c>
       <c r="C383" t="n">
-        <v>42.27</v>
+        <v>42.24</v>
       </c>
       <c r="D383" t="n">
-        <v>19030.82</v>
+        <v>19052.92</v>
       </c>
       <c r="E383" t="n">
         <v>1.02</v>
@@ -10029,16 +10035,16 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>4.72</v>
+        <v>4.7</v>
       </c>
       <c r="C384" t="n">
-        <v>21.26</v>
+        <v>21.19</v>
       </c>
       <c r="D384" t="n">
-        <v>38479.15</v>
+        <v>38638.35</v>
       </c>
       <c r="E384" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="F384" t="n">
         <v>14.08</v>
@@ -10054,16 +10060,16 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>7.9</v>
+        <v>7.85</v>
       </c>
       <c r="C385" t="n">
-        <v>10.97</v>
+        <v>10.91</v>
       </c>
       <c r="D385" t="n">
-        <v>49473.99</v>
+        <v>49787.72</v>
       </c>
       <c r="E385" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="F385" t="n">
         <v>17.45</v>
@@ -10082,10 +10088,10 @@
         <v>2.77</v>
       </c>
       <c r="C386" t="n">
-        <v>15.11</v>
+        <v>15.12</v>
       </c>
       <c r="D386" t="n">
-        <v>67910.73</v>
+        <v>67854.84</v>
       </c>
       <c r="E386" t="n">
         <v>1.34</v>
@@ -10107,10 +10113,10 @@
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>6.84</v>
+        <v>6.85</v>
       </c>
       <c r="D387" t="n">
-        <v>21796.36</v>
+        <v>21760.7</v>
       </c>
       <c r="E387" t="n">
         <v>0.97</v>
@@ -10132,13 +10138,13 @@
         <v>0.14</v>
       </c>
       <c r="C388" t="n">
-        <v>10.54</v>
+        <v>10.56</v>
       </c>
       <c r="D388" t="n">
-        <v>30094.04</v>
+        <v>30031.15</v>
       </c>
       <c r="E388" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="F388" t="n">
         <v>22.93</v>
@@ -10160,7 +10166,7 @@
         <v>8.140000000000001</v>
       </c>
       <c r="D389" t="n">
-        <v>53629.74</v>
+        <v>53632.1</v>
       </c>
       <c r="E389" t="n">
         <v>1.3</v>
@@ -10185,7 +10191,7 @@
         <v>0.4</v>
       </c>
       <c r="D390" t="n">
-        <v>66947.89</v>
+        <v>66921.75999999999</v>
       </c>
       <c r="E390" t="n">
         <v>3.98</v>
@@ -10194,7 +10200,7 @@
         <v>14.25</v>
       </c>
       <c r="G390" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="391">
@@ -10210,7 +10216,7 @@
         <v>2.74</v>
       </c>
       <c r="D391" t="n">
-        <v>168236.28</v>
+        <v>168214</v>
       </c>
       <c r="E391" t="n">
         <v>2.18</v>
@@ -10232,13 +10238,13 @@
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>10.67</v>
+        <v>10.7</v>
       </c>
       <c r="D392" t="n">
-        <v>11112.81</v>
+        <v>11080.26</v>
       </c>
       <c r="E392" t="n">
-        <v>2.3</v>
+        <v>2.31</v>
       </c>
       <c r="F392" t="n">
         <v>13.67</v>
@@ -10257,13 +10263,13 @@
         <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>42.61</v>
+        <v>42.44</v>
       </c>
       <c r="D393" t="n">
-        <v>29793.94</v>
+        <v>29993.95</v>
       </c>
       <c r="E393" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="F393" t="n">
         <v>51.44</v>
@@ -10279,22 +10285,22 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>4.13</v>
+        <v>4.09</v>
       </c>
       <c r="C394" t="n">
-        <v>27.18</v>
+        <v>27.01</v>
       </c>
       <c r="D394" t="n">
-        <v>10375.22</v>
+        <v>10464.82</v>
       </c>
       <c r="E394" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="F394" t="n">
         <v>8.32</v>
       </c>
       <c r="G394" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="395">
@@ -10307,13 +10313,13 @@
         <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>-12.52</v>
+        <v>-12.53</v>
       </c>
       <c r="D395" t="n">
-        <v>104554.02</v>
+        <v>104494.83</v>
       </c>
       <c r="E395" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F395" t="n">
         <v>15.43</v>
@@ -10329,13 +10335,13 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>4.61</v>
+        <v>4.58</v>
       </c>
       <c r="C396" t="n">
-        <v>-37.05</v>
+        <v>-36.77</v>
       </c>
       <c r="D396" t="n">
-        <v>16539.6</v>
+        <v>16632</v>
       </c>
       <c r="E396" t="n">
         <v>1.7</v>
@@ -10360,7 +10366,7 @@
         <v>-9.31</v>
       </c>
       <c r="D397" t="n">
-        <v>8594.440000000001</v>
+        <v>8592.32</v>
       </c>
       <c r="E397" t="n">
         <v>0.99</v>
@@ -10379,16 +10385,16 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="C398" t="n">
-        <v>-26.54</v>
+        <v>-26.34</v>
       </c>
       <c r="D398" t="n">
-        <v>23836.21</v>
+        <v>23983.39</v>
       </c>
       <c r="E398" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="F398" t="n">
         <v>14.2</v>
@@ -10404,13 +10410,13 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="C399" t="n">
-        <v>10.33</v>
+        <v>10.29</v>
       </c>
       <c r="D399" t="n">
-        <v>11428.18</v>
+        <v>11480.66</v>
       </c>
       <c r="E399" t="n">
         <v>3.79</v>
@@ -10429,13 +10435,13 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="C400" t="n">
-        <v>4.76</v>
+        <v>4.74</v>
       </c>
       <c r="D400" t="n">
-        <v>27026.02</v>
+        <v>27152.49</v>
       </c>
       <c r="E400" t="n">
         <v>2.34</v>
@@ -10460,7 +10466,7 @@
         <v>6.5</v>
       </c>
       <c r="D401" t="n">
-        <v>32534.89</v>
+        <v>32545.8</v>
       </c>
       <c r="E401" t="n">
         <v>4.43</v>
@@ -10485,7 +10491,7 @@
         <v>1.11</v>
       </c>
       <c r="D402" t="n">
-        <v>21426.41</v>
+        <v>21411.64</v>
       </c>
       <c r="E402" t="n">
         <v>0.95</v>
@@ -10507,10 +10513,10 @@
         <v>0.49</v>
       </c>
       <c r="C403" t="n">
-        <v>9.43</v>
+        <v>9.42</v>
       </c>
       <c r="D403" t="n">
-        <v>58762.84</v>
+        <v>58779.94</v>
       </c>
       <c r="E403" t="n">
         <v>1.27</v>
@@ -10532,13 +10538,13 @@
         <v>0.86</v>
       </c>
       <c r="C404" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="D404" t="n">
-        <v>50146.48</v>
+        <v>49997.38</v>
       </c>
       <c r="E404" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F404" t="n">
         <v>18.09</v>
@@ -10560,7 +10566,7 @@
         <v>17.88</v>
       </c>
       <c r="D405" t="n">
-        <v>54827.54</v>
+        <v>54840.19</v>
       </c>
       <c r="E405" t="n">
         <v>0.59</v>
@@ -10585,7 +10591,7 @@
         <v>22.9</v>
       </c>
       <c r="D406" t="n">
-        <v>130108.5</v>
+        <v>130144.45</v>
       </c>
       <c r="E406" t="n">
         <v>1.37</v>
@@ -10607,10 +10613,10 @@
         <v>0.27</v>
       </c>
       <c r="C407" t="n">
-        <v>15.94</v>
+        <v>15.95</v>
       </c>
       <c r="D407" t="n">
-        <v>12807.83</v>
+        <v>12804.74</v>
       </c>
       <c r="E407" t="n">
         <v>1.58</v>
@@ -10635,7 +10641,7 @@
         <v>39.02</v>
       </c>
       <c r="D408" t="n">
-        <v>23482.87</v>
+        <v>23483.95</v>
       </c>
       <c r="E408" t="n">
         <v>1.64</v>
@@ -10654,13 +10660,13 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="C409" t="n">
-        <v>15.65</v>
+        <v>15.66</v>
       </c>
       <c r="D409" t="n">
-        <v>111323.52</v>
+        <v>111174.98</v>
       </c>
       <c r="E409" t="n">
         <v>1.1</v>
@@ -10679,16 +10685,16 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="C410" t="n">
-        <v>12.1</v>
+        <v>12.03</v>
       </c>
       <c r="D410" t="n">
-        <v>114813.13</v>
+        <v>115496.6</v>
       </c>
       <c r="E410" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="F410" t="n">
         <v>28.23</v>
@@ -10707,10 +10713,10 @@
         <v>0.78</v>
       </c>
       <c r="C411" t="n">
-        <v>12.66</v>
+        <v>12.63</v>
       </c>
       <c r="D411" t="n">
-        <v>79590.07000000001</v>
+        <v>79794.84</v>
       </c>
       <c r="E411" t="n">
         <v>1.09</v>
@@ -10732,10 +10738,10 @@
         <v>3.22</v>
       </c>
       <c r="C412" t="n">
-        <v>19.75</v>
+        <v>19.74</v>
       </c>
       <c r="D412" t="n">
-        <v>13346.32</v>
+        <v>13352.58</v>
       </c>
       <c r="E412" t="n">
         <v>1.41</v>
@@ -10757,10 +10763,10 @@
         <v>1.96</v>
       </c>
       <c r="C413" t="n">
-        <v>11.57</v>
+        <v>11.56</v>
       </c>
       <c r="D413" t="n">
-        <v>67130.38</v>
+        <v>67201.75</v>
       </c>
       <c r="E413" t="n">
         <v>2.2</v>
@@ -10785,7 +10791,7 @@
         <v>3.55</v>
       </c>
       <c r="D414" t="n">
-        <v>13904.17</v>
+        <v>13909.47</v>
       </c>
       <c r="E414" t="n">
         <v>2.31</v>
@@ -10810,7 +10816,7 @@
         <v>-1.04</v>
       </c>
       <c r="D415" t="n">
-        <v>87977.86</v>
+        <v>87476.09</v>
       </c>
       <c r="E415" t="n">
         <v>2.24</v>
@@ -10832,10 +10838,10 @@
         <v>3.95</v>
       </c>
       <c r="C416" t="n">
-        <v>43.77</v>
+        <v>43.76</v>
       </c>
       <c r="D416" t="n">
-        <v>73513.32000000001</v>
+        <v>73534.09</v>
       </c>
       <c r="E416" t="n">
         <v>1.03</v>
@@ -10857,13 +10863,13 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>34.2</v>
+        <v>34.08</v>
       </c>
       <c r="D417" t="n">
-        <v>47792.47</v>
+        <v>48039.32</v>
       </c>
       <c r="E417" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="F417" t="n">
         <v>38.13</v>
@@ -10879,16 +10885,16 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="C418" t="n">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
       <c r="D418" t="n">
-        <v>144797.83</v>
+        <v>144065.81</v>
       </c>
       <c r="E418" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="F418" t="n">
         <v>24.85</v>
@@ -10910,7 +10916,7 @@
         <v>39.89</v>
       </c>
       <c r="D419" t="n">
-        <v>43765.32</v>
+        <v>43752.76</v>
       </c>
       <c r="E419" t="n">
         <v>0.95</v>
@@ -10932,13 +10938,13 @@
         <v>0.83</v>
       </c>
       <c r="C420" t="n">
-        <v>12.22</v>
+        <v>12.17</v>
       </c>
       <c r="D420" t="n">
-        <v>22013.01</v>
+        <v>22119.53</v>
       </c>
       <c r="E420" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="F420" t="n">
         <v>2.93</v>
@@ -10954,16 +10960,16 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="C421" t="n">
-        <v>4.5</v>
+        <v>4.48</v>
       </c>
       <c r="D421" t="n">
-        <v>20116.22</v>
+        <v>20225.44</v>
       </c>
       <c r="E421" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="F421" t="n">
         <v>14.42</v>
@@ -10979,13 +10985,13 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>4.43</v>
+        <v>4.42</v>
       </c>
       <c r="C422" t="n">
-        <v>141.36</v>
+        <v>141.46</v>
       </c>
       <c r="D422" t="n">
-        <v>21954.35</v>
+        <v>21993.6</v>
       </c>
       <c r="E422" t="n">
         <v>0.98</v>
@@ -11004,16 +11010,16 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="C423" t="n">
-        <v>21.47</v>
+        <v>21.4</v>
       </c>
       <c r="D423" t="n">
-        <v>18465.95</v>
+        <v>18542.69</v>
       </c>
       <c r="E423" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="F423" t="n">
         <v>24.13</v>
@@ -11032,10 +11038,10 @@
         <v>1.32</v>
       </c>
       <c r="C424" t="n">
-        <v>22.41</v>
+        <v>22.4</v>
       </c>
       <c r="D424" t="n">
-        <v>44403.34</v>
+        <v>44440.43</v>
       </c>
       <c r="E424" t="n">
         <v>1.19</v>
@@ -11057,10 +11063,10 @@
         <v>3.54</v>
       </c>
       <c r="C425" t="n">
-        <v>33.05</v>
+        <v>33.04</v>
       </c>
       <c r="D425" t="n">
-        <v>13630.13</v>
+        <v>13635.49</v>
       </c>
       <c r="E425" t="n">
         <v>1.45</v>
@@ -11085,7 +11091,7 @@
         <v>4.4</v>
       </c>
       <c r="D426" t="n">
-        <v>16744.31</v>
+        <v>16755.48</v>
       </c>
       <c r="E426" t="n">
         <v>1.68</v>
@@ -11104,16 +11110,16 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="C427" t="n">
-        <v>9.880000000000001</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D427" t="n">
-        <v>15708.37</v>
+        <v>15759.24</v>
       </c>
       <c r="E427" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="F427" t="n">
         <v>29.47</v>
@@ -11129,16 +11135,16 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C428" t="n">
-        <v>5.68</v>
+        <v>5.72</v>
       </c>
       <c r="D428" t="n">
-        <v>130737.07</v>
+        <v>129908.89</v>
       </c>
       <c r="E428" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="F428" t="n">
         <v>17.77</v>
@@ -11157,10 +11163,10 @@
         <v>2.48</v>
       </c>
       <c r="C429" t="n">
-        <v>20.58</v>
+        <v>20.59</v>
       </c>
       <c r="D429" t="n">
-        <v>40211.97</v>
+        <v>40181.67</v>
       </c>
       <c r="E429" t="n">
         <v>1.84</v>
@@ -11179,13 +11185,13 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>6.77</v>
+        <v>6.76</v>
       </c>
       <c r="C430" t="n">
-        <v>55.21</v>
+        <v>55.17</v>
       </c>
       <c r="D430" t="n">
-        <v>120227.25</v>
+        <v>120406</v>
       </c>
       <c r="E430" t="n">
         <v>1.58</v>
@@ -11204,13 +11210,13 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="C431" t="n">
-        <v>31.98</v>
+        <v>31.91</v>
       </c>
       <c r="D431" t="n">
-        <v>12986.65</v>
+        <v>13027.75</v>
       </c>
       <c r="E431" t="n">
         <v>1.35</v>
@@ -11232,13 +11238,13 @@
         <v>0.06</v>
       </c>
       <c r="C432" t="n">
-        <v>20.98</v>
+        <v>21.07</v>
       </c>
       <c r="D432" t="n">
-        <v>62288.26</v>
+        <v>61937.62</v>
       </c>
       <c r="E432" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F432" t="n">
         <v>25.53</v>
@@ -11257,10 +11263,10 @@
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>11.3</v>
+        <v>11.28</v>
       </c>
       <c r="D433" t="n">
-        <v>20383.3</v>
+        <v>20431.79</v>
       </c>
       <c r="E433" t="n">
         <v>1.85</v>
@@ -11285,7 +11291,7 @@
         <v>2.29</v>
       </c>
       <c r="D434" t="n">
-        <v>10703.89</v>
+        <v>10711.77</v>
       </c>
       <c r="E434" t="n">
         <v>1.79</v>
@@ -11307,10 +11313,10 @@
         <v>1.61</v>
       </c>
       <c r="C435" t="n">
-        <v>6.15</v>
+        <v>6.16</v>
       </c>
       <c r="D435" t="n">
-        <v>44950.57</v>
+        <v>44941.09</v>
       </c>
       <c r="E435" t="n">
         <v>1.73</v>
@@ -11329,16 +11335,16 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="C436" t="n">
-        <v>-5.8</v>
+        <v>-5.78</v>
       </c>
       <c r="D436" t="n">
-        <v>15580.64</v>
+        <v>15641.02</v>
       </c>
       <c r="E436" t="n">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="F436" t="n">
         <v>14.25</v>
@@ -11354,16 +11360,16 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>6.29</v>
+        <v>6.25</v>
       </c>
       <c r="C437" t="n">
-        <v>39.27</v>
+        <v>39.13</v>
       </c>
       <c r="D437" t="n">
-        <v>47521.26</v>
+        <v>47801.35</v>
       </c>
       <c r="E437" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="F437" t="n">
         <v>35.27</v>
@@ -11382,10 +11388,10 @@
         <v>0.54</v>
       </c>
       <c r="C438" t="n">
-        <v>11.69</v>
+        <v>11.65</v>
       </c>
       <c r="D438" t="n">
-        <v>11776.77</v>
+        <v>11826.98</v>
       </c>
       <c r="E438" t="n">
         <v>1.4</v>
@@ -11407,13 +11413,13 @@
         <v>2.72</v>
       </c>
       <c r="C439" t="n">
-        <v>19.96</v>
+        <v>19.98</v>
       </c>
       <c r="D439" t="n">
-        <v>67560.52</v>
+        <v>67454.64</v>
       </c>
       <c r="E439" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="F439" t="n">
         <v>29.48</v>
@@ -11432,10 +11438,10 @@
         <v>1.17</v>
       </c>
       <c r="C440" t="n">
-        <v>5.97</v>
+        <v>5.99</v>
       </c>
       <c r="D440" t="n">
-        <v>114376.8</v>
+        <v>114099.49</v>
       </c>
       <c r="E440" t="n">
         <v>0.92</v>
@@ -11457,10 +11463,10 @@
         <v>0.25</v>
       </c>
       <c r="C441" t="n">
-        <v>11.17</v>
+        <v>11.2</v>
       </c>
       <c r="D441" t="n">
-        <v>213339.15</v>
+        <v>212794.38</v>
       </c>
       <c r="E441" t="n">
         <v>1.65</v>
@@ -11479,16 +11485,16 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="C442" t="n">
-        <v>35.73</v>
+        <v>35.76</v>
       </c>
       <c r="D442" t="n">
-        <v>194163.23</v>
+        <v>193947.99</v>
       </c>
       <c r="E442" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F442" t="n">
         <v>18.65</v>
@@ -11504,16 +11510,16 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>2.95</v>
+        <v>2.97</v>
       </c>
       <c r="C443" t="n">
-        <v>21.02</v>
+        <v>21.09</v>
       </c>
       <c r="D443" t="n">
-        <v>9590.59</v>
+        <v>9550.799999999999</v>
       </c>
       <c r="E443" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="F443" t="n">
         <v>29.23</v>
@@ -11529,16 +11535,16 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="C444" t="n">
-        <v>36.53</v>
+        <v>36.59</v>
       </c>
       <c r="D444" t="n">
-        <v>19735.75</v>
+        <v>19686.02</v>
       </c>
       <c r="E444" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="F444" t="n">
         <v>-3.31</v>
@@ -11557,10 +11563,10 @@
         <v>0</v>
       </c>
       <c r="C445" t="n">
-        <v>9.69</v>
+        <v>9.68</v>
       </c>
       <c r="D445" t="n">
-        <v>12952.37</v>
+        <v>12964.72</v>
       </c>
       <c r="E445" t="n">
         <v>1.67</v>
@@ -11579,22 +11585,22 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>4.65</v>
+        <v>4.64</v>
       </c>
       <c r="C446" t="n">
-        <v>-6.37</v>
+        <v>-6.36</v>
       </c>
       <c r="D446" t="n">
-        <v>23828.45</v>
+        <v>23850.88</v>
       </c>
       <c r="E446" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="F446" t="n">
         <v>14.7</v>
       </c>
       <c r="G446" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="447">
@@ -11607,13 +11613,13 @@
         <v>1.85</v>
       </c>
       <c r="C447" t="n">
-        <v>13.09</v>
+        <v>13.1</v>
       </c>
       <c r="D447" t="n">
-        <v>48992.26</v>
+        <v>48948.9</v>
       </c>
       <c r="E447" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="F447" t="n">
         <v>21.02</v>
@@ -11632,10 +11638,10 @@
         <v>1.77</v>
       </c>
       <c r="C448" t="n">
-        <v>15.47</v>
+        <v>15.44</v>
       </c>
       <c r="D448" t="n">
-        <v>25356.57</v>
+        <v>25415.49</v>
       </c>
       <c r="E448" t="n">
         <v>1.38</v>
@@ -11657,13 +11663,13 @@
         <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>-3.29</v>
+        <v>-3.27</v>
       </c>
       <c r="D449" t="n">
-        <v>613233.51</v>
+        <v>616520.47</v>
       </c>
       <c r="E449" t="n">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="F449" t="n">
         <v>3.25</v>
@@ -11679,22 +11685,22 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="C450" t="n">
-        <v>33.68</v>
+        <v>33.58</v>
       </c>
       <c r="D450" t="n">
-        <v>18629.48</v>
+        <v>18718.48</v>
       </c>
       <c r="E450" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="F450" t="n">
         <v>18.54</v>
       </c>
       <c r="G450" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="451">
@@ -11707,10 +11713,10 @@
         <v>1.09</v>
       </c>
       <c r="C451" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="D451" t="n">
-        <v>62571.35</v>
+        <v>62678.3</v>
       </c>
       <c r="E451" t="n">
         <v>2.01</v>
@@ -11732,13 +11738,13 @@
         <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>8.57</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D452" t="n">
-        <v>26391.47</v>
+        <v>26164.3</v>
       </c>
       <c r="E452" t="n">
-        <v>2.08</v>
+        <v>2.24</v>
       </c>
       <c r="F452" t="n">
         <v>15.01</v>
@@ -11754,16 +11760,16 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="C453" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="D453" t="n">
-        <v>147185.28</v>
+        <v>147621.59</v>
       </c>
       <c r="E453" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="F453" t="n">
         <v>11.54</v>
@@ -11785,7 +11791,7 @@
         <v>7.6</v>
       </c>
       <c r="D454" t="n">
-        <v>17081.88</v>
+        <v>17091.68</v>
       </c>
       <c r="E454" t="n">
         <v>2.04</v>
@@ -11810,7 +11816,7 @@
         <v>4.34</v>
       </c>
       <c r="D455" t="n">
-        <v>18427.96</v>
+        <v>18425.88</v>
       </c>
       <c r="E455" t="n">
         <v>1.41</v>
@@ -11832,13 +11838,13 @@
         <v>0</v>
       </c>
       <c r="C456" t="n">
-        <v>59.3</v>
+        <v>59.06</v>
       </c>
       <c r="D456" t="n">
-        <v>13746.86</v>
+        <v>13884.96</v>
       </c>
       <c r="E456" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="F456" t="n">
         <v>13.37</v>
@@ -11857,13 +11863,13 @@
         <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>4.86</v>
+        <v>4.84</v>
       </c>
       <c r="D457" t="n">
-        <v>141517.12</v>
+        <v>142209.02</v>
       </c>
       <c r="E457" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="F457" t="n">
         <v>47.11</v>
@@ -11879,13 +11885,13 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>4.17</v>
+        <v>4.16</v>
       </c>
       <c r="C458" t="n">
-        <v>32.84</v>
+        <v>32.78</v>
       </c>
       <c r="D458" t="n">
-        <v>11606.88</v>
+        <v>11636.49</v>
       </c>
       <c r="E458" t="n">
         <v>1.04</v>
@@ -11907,10 +11913,10 @@
         <v>0.51</v>
       </c>
       <c r="C459" t="n">
-        <v>31.19</v>
+        <v>31.07</v>
       </c>
       <c r="D459" t="n">
-        <v>11400.57</v>
+        <v>11468.73</v>
       </c>
       <c r="E459" t="n">
         <v>1.15</v>
@@ -11932,10 +11938,10 @@
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>4.23</v>
+        <v>4.24</v>
       </c>
       <c r="D460" t="n">
-        <v>26389.47</v>
+        <v>26321.74</v>
       </c>
       <c r="E460" t="n">
         <v>1.21</v>
@@ -11957,10 +11963,10 @@
         <v>1.41</v>
       </c>
       <c r="C461" t="n">
-        <v>6.43</v>
+        <v>6.42</v>
       </c>
       <c r="D461" t="n">
-        <v>478998.45</v>
+        <v>479314.76</v>
       </c>
       <c r="E461" t="n">
         <v>1.53</v>
@@ -11982,10 +11988,10 @@
         <v>2.09</v>
       </c>
       <c r="C462" t="n">
-        <v>17.76</v>
+        <v>17.72</v>
       </c>
       <c r="D462" t="n">
-        <v>151637.25</v>
+        <v>152063.97</v>
       </c>
       <c r="E462" t="n">
         <v>0.93</v>
@@ -12007,10 +12013,10 @@
         <v>4.31</v>
       </c>
       <c r="C463" t="n">
-        <v>14.21</v>
+        <v>14.22</v>
       </c>
       <c r="D463" t="n">
-        <v>124713.39</v>
+        <v>124602.63</v>
       </c>
       <c r="E463" t="n">
         <v>2.48</v>
@@ -12032,10 +12038,10 @@
         <v>0.93</v>
       </c>
       <c r="C464" t="n">
-        <v>22.08</v>
+        <v>22.02</v>
       </c>
       <c r="D464" t="n">
-        <v>43586.31</v>
+        <v>43748.77</v>
       </c>
       <c r="E464" t="n">
         <v>3.33</v>
@@ -12054,22 +12060,22 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>4.94</v>
+        <v>4.91</v>
       </c>
       <c r="C465" t="n">
-        <v>8.199999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="D465" t="n">
-        <v>62288.84</v>
+        <v>62600.44</v>
       </c>
       <c r="E465" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="F465" t="n">
         <v>36.28</v>
       </c>
       <c r="G465" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="466">
@@ -12085,7 +12091,7 @@
         <v>-0.8</v>
       </c>
       <c r="D466" t="n">
-        <v>511988.09</v>
+        <v>511119.06</v>
       </c>
       <c r="E466" t="n">
         <v>0.95</v>
@@ -12104,16 +12110,16 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>11.9</v>
+        <v>11.82</v>
       </c>
       <c r="C467" t="n">
-        <v>55.39</v>
+        <v>55.23</v>
       </c>
       <c r="D467" t="n">
-        <v>5907.72</v>
+        <v>5946.58</v>
       </c>
       <c r="E467" t="n">
-        <v>3.19</v>
+        <v>3.18</v>
       </c>
       <c r="F467" t="n">
         <v>-10.04</v>
@@ -12129,13 +12135,13 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>4.29</v>
+        <v>4.26</v>
       </c>
       <c r="C468" t="n">
-        <v>32.28</v>
+        <v>32.12</v>
       </c>
       <c r="D468" t="n">
-        <v>28425.79</v>
+        <v>28623.23</v>
       </c>
       <c r="E468" t="n">
         <v>1.25</v>
@@ -12154,13 +12160,13 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>3.22</v>
+        <v>3.21</v>
       </c>
       <c r="C469" t="n">
-        <v>22.57</v>
+        <v>22.48</v>
       </c>
       <c r="D469" t="n">
-        <v>48442.91</v>
+        <v>48705.06</v>
       </c>
       <c r="E469" t="n">
         <v>1.64</v>
@@ -12182,7 +12188,7 @@
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="F470" t="n">
         <v>8.34</v>
@@ -12201,10 +12207,10 @@
         <v>0.67</v>
       </c>
       <c r="C471" t="n">
-        <v>12.33</v>
+        <v>12.29</v>
       </c>
       <c r="D471" t="n">
-        <v>31764.43</v>
+        <v>31896</v>
       </c>
       <c r="E471" t="n">
         <v>1.5</v>
@@ -12226,13 +12232,13 @@
         <v>0.5</v>
       </c>
       <c r="C472" t="n">
-        <v>8.99</v>
+        <v>9.02</v>
       </c>
       <c r="D472" t="n">
-        <v>38891.86</v>
+        <v>38769.65</v>
       </c>
       <c r="E472" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F472" t="n">
         <v>0.99</v>
@@ -12251,13 +12257,13 @@
         <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
       <c r="D473" t="n">
-        <v>21019.46</v>
+        <v>20889.41</v>
       </c>
       <c r="E473" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="F473" t="n">
         <v>-1.89</v>
@@ -12276,10 +12282,10 @@
         <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>-9.98</v>
+        <v>-10</v>
       </c>
       <c r="D474" t="n">
-        <v>108830.29</v>
+        <v>108692.79</v>
       </c>
       <c r="E474" t="n">
         <v>1.49</v>
@@ -12298,16 +12304,16 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>3.98</v>
+        <v>3.96</v>
       </c>
       <c r="C475" t="n">
-        <v>40.59</v>
+        <v>40.46</v>
       </c>
       <c r="D475" t="n">
-        <v>18094.28</v>
+        <v>18198.2</v>
       </c>
       <c r="E475" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="F475" t="n">
         <v>17.4</v>
@@ -12323,16 +12329,16 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>4.12</v>
+        <v>4.1</v>
       </c>
       <c r="C476" t="n">
-        <v>56.36</v>
+        <v>56.27</v>
       </c>
       <c r="D476" t="n">
-        <v>14122.48</v>
+        <v>14177.11</v>
       </c>
       <c r="E476" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="F476" t="n">
         <v>25.59</v>
@@ -12348,16 +12354,16 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>6.63</v>
+        <v>6.6</v>
       </c>
       <c r="C477" t="n">
-        <v>50.96</v>
+        <v>50.87</v>
       </c>
       <c r="D477" t="n">
-        <v>166383.81</v>
+        <v>166982.89</v>
       </c>
       <c r="E477" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="F477" t="n">
         <v>22.14</v>
@@ -12401,13 +12407,13 @@
         <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="D479" t="n">
-        <v>19027.94</v>
+        <v>19079.95</v>
       </c>
       <c r="E479" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="F479" t="n">
         <v>21.42</v>
@@ -12423,16 +12429,16 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>8.65</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="C480" t="n">
-        <v>63.79</v>
+        <v>63.72</v>
       </c>
       <c r="D480" t="n">
-        <v>19169.23</v>
+        <v>19229.58</v>
       </c>
       <c r="E480" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="F480" t="n">
         <v>9.449999999999999</v>
@@ -12451,13 +12457,13 @@
         <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>67.54000000000001</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D481" t="n">
-        <v>23485.95</v>
+        <v>23425.2</v>
       </c>
       <c r="E481" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="F481" t="n">
         <v>3.1</v>
@@ -12476,13 +12482,13 @@
         <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>22.62</v>
+        <v>22.56</v>
       </c>
       <c r="D482" t="n">
-        <v>18238.08</v>
+        <v>18296.04</v>
       </c>
       <c r="E482" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="F482" t="n">
         <v>16.68</v>
@@ -12504,10 +12510,10 @@
         <v>43.4</v>
       </c>
       <c r="D483" t="n">
-        <v>24455.64</v>
+        <v>24461.95</v>
       </c>
       <c r="E483" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F483" t="n">
         <v>1.96</v>
@@ -12523,16 +12529,16 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="C484" t="n">
-        <v>25.05</v>
+        <v>25</v>
       </c>
       <c r="D484" t="n">
-        <v>42885.2</v>
+        <v>42998.02</v>
       </c>
       <c r="E484" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F484" t="n">
         <v>9.58</v>
@@ -12548,16 +12554,16 @@
         </is>
       </c>
       <c r="B485" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="C485" t="n">
-        <v>-13.57</v>
+        <v>-13.47</v>
       </c>
       <c r="D485" t="n">
-        <v>171827.69</v>
+        <v>172961.34</v>
       </c>
       <c r="E485" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="F485" t="n">
         <v>17.71</v>
@@ -12579,7 +12585,7 @@
         <v>51.12</v>
       </c>
       <c r="D486" t="n">
-        <v>5997.2</v>
+        <v>5998.3</v>
       </c>
       <c r="E486" t="n">
         <v>2.08</v>
@@ -12604,7 +12610,7 @@
         <v>16.44</v>
       </c>
       <c r="D487" t="n">
-        <v>77061.95</v>
+        <v>77033.41</v>
       </c>
       <c r="E487" t="n">
         <v>0.61</v>
@@ -12623,13 +12629,13 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>5.01</v>
+        <v>5</v>
       </c>
       <c r="C488" t="n">
-        <v>35.31</v>
+        <v>35.26</v>
       </c>
       <c r="D488" t="n">
-        <v>41357.19</v>
+        <v>41448.54</v>
       </c>
       <c r="E488" t="n">
         <v>0.82</v>
@@ -12651,10 +12657,10 @@
         <v>1.34</v>
       </c>
       <c r="C489" t="n">
-        <v>9.93</v>
+        <v>9.94</v>
       </c>
       <c r="D489" t="n">
-        <v>455978.78</v>
+        <v>455871.04</v>
       </c>
       <c r="E489" t="n">
         <v>0.77</v>
@@ -12679,7 +12685,7 @@
         <v>7.16</v>
       </c>
       <c r="D490" t="n">
-        <v>20636.48</v>
+        <v>20646.74</v>
       </c>
       <c r="E490" t="n">
         <v>1.9</v>
@@ -12701,10 +12707,10 @@
         <v>2.58</v>
       </c>
       <c r="C491" t="n">
-        <v>45.08</v>
+        <v>45.11</v>
       </c>
       <c r="D491" t="n">
-        <v>10908.54</v>
+        <v>10897</v>
       </c>
       <c r="E491" t="n">
         <v>2.43</v>
@@ -12726,10 +12732,10 @@
         <v>0.18</v>
       </c>
       <c r="C492" t="n">
-        <v>-1.93</v>
+        <v>-1.94</v>
       </c>
       <c r="D492" t="n">
-        <v>30402.86</v>
+        <v>30354.33</v>
       </c>
       <c r="E492" t="n">
         <v>1.6</v>
@@ -12748,13 +12754,13 @@
         </is>
       </c>
       <c r="B493" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="C493" t="n">
-        <v>12.74</v>
+        <v>12.7</v>
       </c>
       <c r="D493" t="n">
-        <v>28920.89</v>
+        <v>29018.02</v>
       </c>
       <c r="E493" t="n">
         <v>1.74</v>
@@ -12773,16 +12779,16 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>5.03</v>
+        <v>5.01</v>
       </c>
       <c r="C494" t="n">
-        <v>13.91</v>
+        <v>13.85</v>
       </c>
       <c r="D494" t="n">
-        <v>24173.07</v>
+        <v>24286.18</v>
       </c>
       <c r="E494" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="F494" t="n">
         <v>14.97</v>
@@ -12801,13 +12807,13 @@
         <v>0.01</v>
       </c>
       <c r="C495" t="n">
-        <v>45.93</v>
+        <v>45.78</v>
       </c>
       <c r="D495" t="n">
-        <v>11900.39</v>
+        <v>11971.81</v>
       </c>
       <c r="E495" t="n">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="F495" t="n">
         <v>7.43</v>
@@ -12826,13 +12832,13 @@
         <v>3.17</v>
       </c>
       <c r="C496" t="n">
-        <v>44.82</v>
+        <v>44.78</v>
       </c>
       <c r="D496" t="n">
-        <v>31914</v>
+        <v>31968.95</v>
       </c>
       <c r="E496" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F496" t="n">
         <v>5.52</v>
@@ -12851,13 +12857,13 @@
         <v>3.6</v>
       </c>
       <c r="C497" t="n">
-        <v>3.96</v>
+        <v>3.97</v>
       </c>
       <c r="D497" t="n">
-        <v>415506.78</v>
+        <v>415425.13</v>
       </c>
       <c r="E497" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="F497" t="n">
         <v>-10.02</v>
@@ -12876,13 +12882,13 @@
         <v>1.47</v>
       </c>
       <c r="C498" t="n">
-        <v>20.13</v>
+        <v>20.15</v>
       </c>
       <c r="D498" t="n">
-        <v>7068.3</v>
+        <v>7059.69</v>
       </c>
       <c r="E498" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="F498" t="n">
         <v>14.79</v>
@@ -12898,13 +12904,13 @@
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="C499" t="n">
-        <v>5.31</v>
+        <v>5.3</v>
       </c>
       <c r="D499" t="n">
-        <v>22368.23</v>
+        <v>22398.86</v>
       </c>
       <c r="E499" t="n">
         <v>1.65</v>
@@ -12948,13 +12954,13 @@
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="C501" t="n">
-        <v>17.81</v>
+        <v>17.76</v>
       </c>
       <c r="D501" t="n">
-        <v>25574.28</v>
+        <v>25665.2</v>
       </c>
       <c r="E501" t="n">
         <v>1.31</v>
@@ -12976,13 +12982,13 @@
         <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>13.87</v>
+        <v>13.85</v>
       </c>
       <c r="D502" t="n">
-        <v>13005.91</v>
+        <v>13021.86</v>
       </c>
       <c r="E502" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="F502" t="n">
         <v>21.67</v>
@@ -12998,13 +13004,13 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>4.55</v>
+        <v>4.53</v>
       </c>
       <c r="C503" t="n">
-        <v>23.59</v>
+        <v>23.5</v>
       </c>
       <c r="D503" t="n">
-        <v>5910.56</v>
+        <v>5939.45</v>
       </c>
       <c r="E503" t="n">
         <v>2.6</v>
@@ -13026,13 +13032,13 @@
         <v>0.67</v>
       </c>
       <c r="C504" t="n">
-        <v>4.73</v>
+        <v>4.74</v>
       </c>
       <c r="D504" t="n">
-        <v>91680.94</v>
+        <v>91518.61</v>
       </c>
       <c r="E504" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="F504" t="n">
         <v>19.06</v>
